--- a/teaching/traditional_assets/database/data/italy/italy_rubber_tires.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_rubber_tires.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bit_pirc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,115 +593,118 @@
         </is>
       </c>
       <c r="F2">
-        <v>0.0191</v>
+        <v>-0.0767</v>
       </c>
       <c r="G2">
-        <v>0.2633229848633519</v>
+        <v>0.3115703098654876</v>
       </c>
       <c r="H2">
-        <v>0.2102723309794586</v>
+        <v>0.2500468357750384</v>
       </c>
       <c r="I2">
-        <v>0.1324828526735179</v>
+        <v>0.06229158080107909</v>
       </c>
       <c r="J2">
-        <v>0.1040667862620105</v>
+        <v>0.04530945453457643</v>
       </c>
       <c r="K2">
-        <v>481.7</v>
+        <v>49.2</v>
       </c>
       <c r="L2">
-        <v>0.07748483922338219</v>
+        <v>0.00921728052755817</v>
       </c>
       <c r="M2">
-        <v>207.41</v>
+        <v>0.021</v>
       </c>
       <c r="N2">
-        <v>0.03597370611905092</v>
+        <v>3.872681001733486e-06</v>
       </c>
       <c r="O2">
-        <v>0.4305791986713722</v>
+        <v>0.0004268292682926829</v>
       </c>
       <c r="P2">
-        <v>202.5</v>
+        <v>0.021</v>
       </c>
       <c r="Q2">
-        <v>0.03512210351047593</v>
+        <v>3.872681001733486e-06</v>
       </c>
       <c r="R2">
-        <v>0.4203861324475815</v>
+        <v>0.0004268292682926829</v>
       </c>
       <c r="S2">
-        <v>4.909999999999997</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.02367291837423459</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>851.8</v>
+        <v>1310</v>
       </c>
       <c r="V2">
-        <v>0.1477383099764118</v>
+        <v>0.2415815291557555</v>
       </c>
       <c r="W2">
-        <v>0.09458079717258983</v>
+        <v>0.009702611027845705</v>
       </c>
       <c r="X2">
-        <v>0.1153772538621067</v>
+        <v>0.1243110144793685</v>
       </c>
       <c r="Y2">
-        <v>-0.02079645668951692</v>
+        <v>-0.1146084034515228</v>
       </c>
       <c r="Z2">
-        <v>0.6166309382860756</v>
+        <v>0.5172988583722598</v>
       </c>
       <c r="AA2">
-        <v>0.06417080005716001</v>
+        <v>0.02343852910420619</v>
       </c>
       <c r="AB2">
-        <v>0.07648235426495731</v>
+        <v>0.07145274397404111</v>
       </c>
       <c r="AC2">
-        <v>-0.0123115542077973</v>
+        <v>-0.04801421486983492</v>
       </c>
       <c r="AD2">
-        <v>6099.6</v>
+        <v>6812.1</v>
       </c>
       <c r="AE2">
-        <v>43.81924892270755</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6143.419248922708</v>
+        <v>6812.1</v>
       </c>
       <c r="AG2">
-        <v>5291.619248922708</v>
+        <v>5502.1</v>
       </c>
       <c r="AH2">
-        <v>0.5158627356722463</v>
+        <v>0.5567852092817969</v>
       </c>
       <c r="AI2">
-        <v>0.5429677667928881</v>
+        <v>0.5684613715639968</v>
       </c>
       <c r="AJ2">
-        <v>0.4785669099794927</v>
+        <v>0.5036385438501744</v>
       </c>
       <c r="AK2">
-        <v>0.5057594610949308</v>
+        <v>0.5154964678546667</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>288.6</v>
       </c>
       <c r="AM2">
-        <v>-53.1</v>
+        <v>-63.29999999999995</v>
       </c>
       <c r="AN2">
-        <v>4.47227375043076</v>
+        <v>8.474869370490172</v>
+      </c>
+      <c r="AO2">
+        <v>1.152113652113652</v>
       </c>
       <c r="AP2">
-        <v>3.879856033876181</v>
+        <v>6.845110724060713</v>
       </c>
       <c r="AQ2">
-        <v>-15.60075329566855</v>
+        <v>-5.252764612954191</v>
       </c>
     </row>
     <row r="3">
@@ -719,115 +724,8836 @@
         </is>
       </c>
       <c r="F3">
-        <v>0.0191</v>
+        <v>-0.0767</v>
       </c>
       <c r="G3">
-        <v>0.2633229848633519</v>
+        <v>0.3115703098654876</v>
       </c>
       <c r="H3">
-        <v>0.2102723309794586</v>
+        <v>0.2500468357750384</v>
       </c>
       <c r="I3">
-        <v>0.1324828526735179</v>
+        <v>0.06229158080107909</v>
       </c>
       <c r="J3">
-        <v>0.1040667862620105</v>
+        <v>0.04530945453457643</v>
       </c>
       <c r="K3">
-        <v>481.7</v>
+        <v>49.2</v>
       </c>
       <c r="L3">
-        <v>0.07748483922338219</v>
+        <v>0.00921728052755817</v>
       </c>
       <c r="M3">
-        <v>207.41</v>
+        <v>0.021</v>
       </c>
       <c r="N3">
-        <v>0.03597370611905092</v>
+        <v>3.872681001733486e-06</v>
       </c>
       <c r="O3">
-        <v>0.4305791986713722</v>
+        <v>0.0004268292682926829</v>
       </c>
       <c r="P3">
-        <v>202.5</v>
+        <v>0.021</v>
       </c>
       <c r="Q3">
-        <v>0.03512210351047593</v>
+        <v>3.872681001733486e-06</v>
       </c>
       <c r="R3">
-        <v>0.4203861324475815</v>
+        <v>0.0004268292682926829</v>
       </c>
       <c r="S3">
-        <v>4.909999999999997</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02367291837423459</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>851.8</v>
+        <v>1310</v>
       </c>
       <c r="V3">
-        <v>0.1477383099764118</v>
+        <v>0.2415815291557555</v>
       </c>
       <c r="W3">
-        <v>0.09458079717258983</v>
+        <v>0.009702611027845705</v>
       </c>
       <c r="X3">
-        <v>0.1153772538621067</v>
+        <v>0.1243110144793685</v>
       </c>
       <c r="Y3">
-        <v>-0.02079645668951692</v>
+        <v>-0.1146084034515228</v>
       </c>
       <c r="Z3">
-        <v>0.6166309382860756</v>
+        <v>0.5172988583722598</v>
       </c>
       <c r="AA3">
-        <v>0.06417080005716001</v>
+        <v>0.02343852910420619</v>
       </c>
       <c r="AB3">
-        <v>0.07648235426495731</v>
+        <v>0.07145274397404111</v>
       </c>
       <c r="AC3">
-        <v>-0.0123115542077973</v>
+        <v>-0.04801421486983492</v>
       </c>
       <c r="AD3">
-        <v>6099.6</v>
+        <v>6812.1</v>
       </c>
       <c r="AE3">
-        <v>43.81924892270755</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6143.419248922708</v>
+        <v>6812.1</v>
       </c>
       <c r="AG3">
-        <v>5291.619248922708</v>
+        <v>5502.1</v>
       </c>
       <c r="AH3">
-        <v>0.5158627356722463</v>
+        <v>0.5567852092817969</v>
       </c>
       <c r="AI3">
-        <v>0.5429677667928881</v>
+        <v>0.5684613715639968</v>
       </c>
       <c r="AJ3">
-        <v>0.4785669099794927</v>
+        <v>0.5036385438501744</v>
       </c>
       <c r="AK3">
-        <v>0.5057594610949308</v>
+        <v>0.5154964678546667</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>288.6</v>
       </c>
       <c r="AM3">
-        <v>-53.1</v>
+        <v>-63.29999999999995</v>
       </c>
       <c r="AN3">
-        <v>4.47227375043076</v>
+        <v>8.474869370490172</v>
+      </c>
+      <c r="AO3">
+        <v>1.152113652113652</v>
       </c>
       <c r="AP3">
-        <v>3.879856033876181</v>
+        <v>6.845110724060713</v>
       </c>
       <c r="AQ3">
-        <v>-15.60075329566855</v>
+        <v>-5.252764612954191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pirelli &amp; C. S.p.A. (BIT:PIRC)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BIT:PIRC</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rubber&amp; Tires</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.556785209281797</v>
+      </c>
+      <c r="F2">
+        <v>0.26</v>
+      </c>
+      <c r="G2">
+        <v>5422.6</v>
+      </c>
+      <c r="H2">
+        <v>9996.869820924599</v>
+      </c>
+      <c r="I2">
+        <v>10924.7</v>
+      </c>
+      <c r="J2">
+        <v>11867.8918209246</v>
+      </c>
+      <c r="K2">
+        <v>6812.1</v>
+      </c>
+      <c r="L2">
+        <v>3181.022</v>
+      </c>
+      <c r="M2">
+        <v>0.0714527439740411</v>
+      </c>
+      <c r="N2">
+        <v>0.0665132011597918</v>
+      </c>
+      <c r="O2">
+        <v>0.0293762539574253</v>
+      </c>
+      <c r="P2">
+        <v>0.017176</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.124311014479369</v>
+      </c>
+      <c r="T2">
+        <v>0.0838478934591781</v>
+      </c>
+      <c r="U2">
+        <v>1.67852835988442</v>
+      </c>
+      <c r="V2">
+        <v>1.08798930178396</v>
+      </c>
+      <c r="W2">
+        <v>3.030973353957936</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>5422.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.03865296573345438</v>
+      </c>
+      <c r="AD2">
+        <v>0.24</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>803.8</v>
+      </c>
+      <c r="AH2">
+        <v>585.9</v>
+      </c>
+      <c r="AI2">
+        <v>270.5</v>
+      </c>
+      <c r="AJ2">
+        <v>6812.1</v>
+      </c>
+      <c r="AK2">
+        <v>6812.1</v>
+      </c>
+      <c r="AL2">
+        <v>288.6</v>
+      </c>
+      <c r="AM2">
+        <v>6812.1</v>
+      </c>
+      <c r="AN2">
+        <v>1310</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06813686130523867</v>
+      </c>
+      <c r="C2">
+        <v>12850.38585727126</v>
+      </c>
+      <c r="D2">
+        <v>11540.38585727126</v>
+      </c>
+      <c r="E2">
+        <v>-6812.1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1310</v>
+      </c>
+      <c r="H2">
+        <v>5422.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>803.8</v>
+      </c>
+      <c r="K2">
+        <v>585.9</v>
+      </c>
+      <c r="L2">
+        <v>217.9</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>217.9</v>
+      </c>
+      <c r="O2">
+        <v>52.29599999999999</v>
+      </c>
+      <c r="P2">
+        <v>165.604</v>
+      </c>
+      <c r="Q2">
+        <v>751.5039999999999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06813686130523867</v>
+      </c>
+      <c r="T2">
+        <v>0.8586946281144718</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.24</v>
+      </c>
+      <c r="W2">
+        <v>0.012312</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06802577283810611</v>
+      </c>
+      <c r="C3">
+        <v>12749.86920045868</v>
+      </c>
+      <c r="D3">
+        <v>11562.21620045868</v>
+      </c>
+      <c r="E3">
+        <v>-6689.753000000001</v>
+      </c>
+      <c r="F3">
+        <v>122.347</v>
+      </c>
+      <c r="G3">
+        <v>1310</v>
+      </c>
+      <c r="H3">
+        <v>5422.6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>803.8</v>
+      </c>
+      <c r="K3">
+        <v>585.9</v>
+      </c>
+      <c r="L3">
+        <v>217.9</v>
+      </c>
+      <c r="M3">
+        <v>1.9820214</v>
+      </c>
+      <c r="N3">
+        <v>215.9179786</v>
+      </c>
+      <c r="O3">
+        <v>51.82031486399999</v>
+      </c>
+      <c r="P3">
+        <v>164.097663736</v>
+      </c>
+      <c r="Q3">
+        <v>749.9976637359999</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06858853822030919</v>
+      </c>
+      <c r="T3">
+        <v>0.8652866272797951</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.24</v>
+      </c>
+      <c r="W3">
+        <v>0.012312</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>109.9382680731903</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0679146843709735</v>
+      </c>
+      <c r="C4">
+        <v>12649.43529080709</v>
+      </c>
+      <c r="D4">
+        <v>11584.12929080709</v>
+      </c>
+      <c r="E4">
+        <v>-6567.406</v>
+      </c>
+      <c r="F4">
+        <v>244.694</v>
+      </c>
+      <c r="G4">
+        <v>1310</v>
+      </c>
+      <c r="H4">
+        <v>5422.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>803.8</v>
+      </c>
+      <c r="K4">
+        <v>585.9</v>
+      </c>
+      <c r="L4">
+        <v>217.9</v>
+      </c>
+      <c r="M4">
+        <v>3.9640428</v>
+      </c>
+      <c r="N4">
+        <v>213.9359572</v>
+      </c>
+      <c r="O4">
+        <v>51.34462972799999</v>
+      </c>
+      <c r="P4">
+        <v>162.591327472</v>
+      </c>
+      <c r="Q4">
+        <v>748.491327472</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06904943303160563</v>
+      </c>
+      <c r="T4">
+        <v>0.8720131570403289</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.24</v>
+      </c>
+      <c r="W4">
+        <v>0.012312</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>54.96913403659516</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06780359590384095</v>
+      </c>
+      <c r="C5">
+        <v>12549.0845996852</v>
+      </c>
+      <c r="D5">
+        <v>11606.1255996852</v>
+      </c>
+      <c r="E5">
+        <v>-6445.059</v>
+      </c>
+      <c r="F5">
+        <v>367.041</v>
+      </c>
+      <c r="G5">
+        <v>1310</v>
+      </c>
+      <c r="H5">
+        <v>5422.6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>803.8</v>
+      </c>
+      <c r="K5">
+        <v>585.9</v>
+      </c>
+      <c r="L5">
+        <v>217.9</v>
+      </c>
+      <c r="M5">
+        <v>5.946064199999999</v>
+      </c>
+      <c r="N5">
+        <v>211.9539358</v>
+      </c>
+      <c r="O5">
+        <v>50.86894459199999</v>
+      </c>
+      <c r="P5">
+        <v>161.084991208</v>
+      </c>
+      <c r="Q5">
+        <v>746.984991208</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06951983082870201</v>
+      </c>
+      <c r="T5">
+        <v>0.8788783781361317</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.24</v>
+      </c>
+      <c r="W5">
+        <v>0.012312</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>36.64608935773011</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06769250743670838</v>
+      </c>
+      <c r="C6">
+        <v>12448.81760204877</v>
+      </c>
+      <c r="D6">
+        <v>11628.20560204877</v>
+      </c>
+      <c r="E6">
+        <v>-6322.712</v>
+      </c>
+      <c r="F6">
+        <v>489.388</v>
+      </c>
+      <c r="G6">
+        <v>1310</v>
+      </c>
+      <c r="H6">
+        <v>5422.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>803.8</v>
+      </c>
+      <c r="K6">
+        <v>585.9</v>
+      </c>
+      <c r="L6">
+        <v>217.9</v>
+      </c>
+      <c r="M6">
+        <v>7.9280856</v>
+      </c>
+      <c r="N6">
+        <v>209.9719144</v>
+      </c>
+      <c r="O6">
+        <v>50.39325945599999</v>
+      </c>
+      <c r="P6">
+        <v>159.578654944</v>
+      </c>
+      <c r="Q6">
+        <v>745.478654944</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07000002857990456</v>
+      </c>
+      <c r="T6">
+        <v>0.8858866246714302</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.24</v>
+      </c>
+      <c r="W6">
+        <v>0.012312</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>27.48456701829758</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.0675814189695758</v>
+      </c>
+      <c r="C7">
+        <v>12348.63477647473</v>
+      </c>
+      <c r="D7">
+        <v>11650.36977647473</v>
+      </c>
+      <c r="E7">
+        <v>-6200.365000000001</v>
+      </c>
+      <c r="F7">
+        <v>611.735</v>
+      </c>
+      <c r="G7">
+        <v>1310</v>
+      </c>
+      <c r="H7">
+        <v>5422.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>803.8</v>
+      </c>
+      <c r="K7">
+        <v>585.9</v>
+      </c>
+      <c r="L7">
+        <v>217.9</v>
+      </c>
+      <c r="M7">
+        <v>9.910107</v>
+      </c>
+      <c r="N7">
+        <v>207.989893</v>
+      </c>
+      <c r="O7">
+        <v>49.91757431999999</v>
+      </c>
+      <c r="P7">
+        <v>158.07231868</v>
+      </c>
+      <c r="Q7">
+        <v>743.9723186799999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07049033575744822</v>
+      </c>
+      <c r="T7">
+        <v>0.8930424132390508</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.24</v>
+      </c>
+      <c r="W7">
+        <v>0.012312</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>21.98765361463806</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06747033050244323</v>
+      </c>
+      <c r="C8">
+        <v>12248.53660519579</v>
+      </c>
+      <c r="D8">
+        <v>11672.61860519579</v>
+      </c>
+      <c r="E8">
+        <v>-6078.018</v>
+      </c>
+      <c r="F8">
+        <v>734.082</v>
+      </c>
+      <c r="G8">
+        <v>1310</v>
+      </c>
+      <c r="H8">
+        <v>5422.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>803.8</v>
+      </c>
+      <c r="K8">
+        <v>585.9</v>
+      </c>
+      <c r="L8">
+        <v>217.9</v>
+      </c>
+      <c r="M8">
+        <v>11.8921284</v>
+      </c>
+      <c r="N8">
+        <v>206.0078716</v>
+      </c>
+      <c r="O8">
+        <v>49.441889184</v>
+      </c>
+      <c r="P8">
+        <v>156.565982416</v>
+      </c>
+      <c r="Q8">
+        <v>742.465982416</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07099107500259919</v>
+      </c>
+      <c r="T8">
+        <v>0.900350452627259</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.24</v>
+      </c>
+      <c r="W8">
+        <v>0.012312</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>18.32304467886506</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06735924203531064</v>
+      </c>
+      <c r="C9">
+        <v>12148.52357413541</v>
+      </c>
+      <c r="D9">
+        <v>11694.95257413541</v>
+      </c>
+      <c r="E9">
+        <v>-5955.671</v>
+      </c>
+      <c r="F9">
+        <v>856.4290000000001</v>
+      </c>
+      <c r="G9">
+        <v>1310</v>
+      </c>
+      <c r="H9">
+        <v>5422.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>803.8</v>
+      </c>
+      <c r="K9">
+        <v>585.9</v>
+      </c>
+      <c r="L9">
+        <v>217.9</v>
+      </c>
+      <c r="M9">
+        <v>13.8741498</v>
+      </c>
+      <c r="N9">
+        <v>204.0258502</v>
+      </c>
+      <c r="O9">
+        <v>48.96620404799999</v>
+      </c>
+      <c r="P9">
+        <v>155.059646152</v>
+      </c>
+      <c r="Q9">
+        <v>740.959646152</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07150258283366737</v>
+      </c>
+      <c r="T9">
+        <v>0.907815654152848</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.24</v>
+      </c>
+      <c r="W9">
+        <v>0.012312</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>15.70546686759862</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06724815356817809</v>
+      </c>
+      <c r="C10">
+        <v>12048.59617294316</v>
+      </c>
+      <c r="D10">
+        <v>11717.37217294316</v>
+      </c>
+      <c r="E10">
+        <v>-5833.324000000001</v>
+      </c>
+      <c r="F10">
+        <v>978.7760000000001</v>
+      </c>
+      <c r="G10">
+        <v>1310</v>
+      </c>
+      <c r="H10">
+        <v>5422.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>803.8</v>
+      </c>
+      <c r="K10">
+        <v>585.9</v>
+      </c>
+      <c r="L10">
+        <v>217.9</v>
+      </c>
+      <c r="M10">
+        <v>15.8561712</v>
+      </c>
+      <c r="N10">
+        <v>202.0438288</v>
+      </c>
+      <c r="O10">
+        <v>48.49051891199999</v>
+      </c>
+      <c r="P10">
+        <v>153.553309888</v>
+      </c>
+      <c r="Q10">
+        <v>739.4533098879999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07202521040019357</v>
+      </c>
+      <c r="T10">
+        <v>0.9154431426681238</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.24</v>
+      </c>
+      <c r="W10">
+        <v>0.012312</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>13.74228350914879</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0671370651010455</v>
+      </c>
+      <c r="C11">
+        <v>11948.75489503055</v>
+      </c>
+      <c r="D11">
+        <v>11739.87789503055</v>
+      </c>
+      <c r="E11">
+        <v>-5710.977000000001</v>
+      </c>
+      <c r="F11">
+        <v>1101.123</v>
+      </c>
+      <c r="G11">
+        <v>1310</v>
+      </c>
+      <c r="H11">
+        <v>5422.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>803.8</v>
+      </c>
+      <c r="K11">
+        <v>585.9</v>
+      </c>
+      <c r="L11">
+        <v>217.9</v>
+      </c>
+      <c r="M11">
+        <v>17.8381926</v>
+      </c>
+      <c r="N11">
+        <v>200.0618074</v>
+      </c>
+      <c r="O11">
+        <v>48.01483377599999</v>
+      </c>
+      <c r="P11">
+        <v>152.046973624</v>
+      </c>
+      <c r="Q11">
+        <v>737.946973624</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07255932428686319</v>
+      </c>
+      <c r="T11">
+        <v>0.9232382682936254</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.24</v>
+      </c>
+      <c r="W11">
+        <v>0.012312</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>12.21536311924337</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06702597663391296</v>
+      </c>
+      <c r="C12">
+        <v>11849.00023760715</v>
+      </c>
+      <c r="D12">
+        <v>11762.47023760715</v>
+      </c>
+      <c r="E12">
+        <v>-5588.63</v>
+      </c>
+      <c r="F12">
+        <v>1223.47</v>
+      </c>
+      <c r="G12">
+        <v>1310</v>
+      </c>
+      <c r="H12">
+        <v>5422.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>803.8</v>
+      </c>
+      <c r="K12">
+        <v>585.9</v>
+      </c>
+      <c r="L12">
+        <v>217.9</v>
+      </c>
+      <c r="M12">
+        <v>19.820214</v>
+      </c>
+      <c r="N12">
+        <v>198.079786</v>
+      </c>
+      <c r="O12">
+        <v>47.53914863999999</v>
+      </c>
+      <c r="P12">
+        <v>150.54063736</v>
+      </c>
+      <c r="Q12">
+        <v>736.44063736</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07310530737101439</v>
+      </c>
+      <c r="T12">
+        <v>0.9312066189330274</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.24</v>
+      </c>
+      <c r="W12">
+        <v>0.012312</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>10.99382680731903</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06691488816678039</v>
+      </c>
+      <c r="C13">
+        <v>11749.33270171729</v>
+      </c>
+      <c r="D13">
+        <v>11785.14970171729</v>
+      </c>
+      <c r="E13">
+        <v>-5466.283</v>
+      </c>
+      <c r="F13">
+        <v>1345.817</v>
+      </c>
+      <c r="G13">
+        <v>1310</v>
+      </c>
+      <c r="H13">
+        <v>5422.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>803.8</v>
+      </c>
+      <c r="K13">
+        <v>585.9</v>
+      </c>
+      <c r="L13">
+        <v>217.9</v>
+      </c>
+      <c r="M13">
+        <v>21.8022354</v>
+      </c>
+      <c r="N13">
+        <v>196.0977646</v>
+      </c>
+      <c r="O13">
+        <v>47.06346350399999</v>
+      </c>
+      <c r="P13">
+        <v>149.034301096</v>
+      </c>
+      <c r="Q13">
+        <v>734.9343010959999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07366355973795548</v>
+      </c>
+      <c r="T13">
+        <v>0.9393540336317414</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.24</v>
+      </c>
+      <c r="W13">
+        <v>0.012312</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>9.994388006653665</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06694971969964779</v>
+      </c>
+      <c r="C14">
+        <v>11619.86520171623</v>
+      </c>
+      <c r="D14">
+        <v>11778.02920171623</v>
+      </c>
+      <c r="E14">
+        <v>-5343.936000000001</v>
+      </c>
+      <c r="F14">
+        <v>1468.164</v>
+      </c>
+      <c r="G14">
+        <v>1310</v>
+      </c>
+      <c r="H14">
+        <v>5422.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>803.8</v>
+      </c>
+      <c r="K14">
+        <v>585.9</v>
+      </c>
+      <c r="L14">
+        <v>217.9</v>
+      </c>
+      <c r="M14">
+        <v>26.1333192</v>
+      </c>
+      <c r="N14">
+        <v>191.7666808</v>
+      </c>
+      <c r="O14">
+        <v>46.024003392</v>
+      </c>
+      <c r="P14">
+        <v>145.742677408</v>
+      </c>
+      <c r="Q14">
+        <v>731.6426774079999</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07423449965869067</v>
+      </c>
+      <c r="T14">
+        <v>0.9476866168463352</v>
+      </c>
+      <c r="U14">
+        <v>0.0178</v>
+      </c>
+      <c r="V14">
+        <v>0.24</v>
+      </c>
+      <c r="W14">
+        <v>0.013528</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>8.33801471341612</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06685079123251524</v>
+      </c>
+      <c r="C15">
+        <v>11517.76435906375</v>
+      </c>
+      <c r="D15">
+        <v>11798.27535906375</v>
+      </c>
+      <c r="E15">
+        <v>-5221.589</v>
+      </c>
+      <c r="F15">
+        <v>1590.511</v>
+      </c>
+      <c r="G15">
+        <v>1310</v>
+      </c>
+      <c r="H15">
+        <v>5422.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>803.8</v>
+      </c>
+      <c r="K15">
+        <v>585.9</v>
+      </c>
+      <c r="L15">
+        <v>217.9</v>
+      </c>
+      <c r="M15">
+        <v>28.3110958</v>
+      </c>
+      <c r="N15">
+        <v>189.5889042</v>
+      </c>
+      <c r="O15">
+        <v>45.50133700799999</v>
+      </c>
+      <c r="P15">
+        <v>144.087567192</v>
+      </c>
+      <c r="Q15">
+        <v>729.9875671919999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07481856463507498</v>
+      </c>
+      <c r="T15">
+        <v>0.9562107536980464</v>
+      </c>
+      <c r="U15">
+        <v>0.0178</v>
+      </c>
+      <c r="V15">
+        <v>0.24</v>
+      </c>
+      <c r="W15">
+        <v>0.013528</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>7.696628966230263</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06698594276538265</v>
+      </c>
+      <c r="C16">
+        <v>11367.77535611592</v>
+      </c>
+      <c r="D16">
+        <v>11770.63335611592</v>
+      </c>
+      <c r="E16">
+        <v>-5099.242</v>
+      </c>
+      <c r="F16">
+        <v>1712.858</v>
+      </c>
+      <c r="G16">
+        <v>1310</v>
+      </c>
+      <c r="H16">
+        <v>5422.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>803.8</v>
+      </c>
+      <c r="K16">
+        <v>585.9</v>
+      </c>
+      <c r="L16">
+        <v>217.9</v>
+      </c>
+      <c r="M16">
+        <v>34.25716</v>
+      </c>
+      <c r="N16">
+        <v>183.64284</v>
+      </c>
+      <c r="O16">
+        <v>44.07428159999999</v>
+      </c>
+      <c r="P16">
+        <v>139.5685584</v>
+      </c>
+      <c r="Q16">
+        <v>725.4685583999999</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.0754162125178868</v>
+      </c>
+      <c r="T16">
+        <v>0.9649331262904949</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+      <c r="V16">
+        <v>0.24</v>
+      </c>
+      <c r="W16">
+        <v>0.0152</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>6.36071408137744</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06690373429825008</v>
+      </c>
+      <c r="C17">
+        <v>11262.2266720094</v>
+      </c>
+      <c r="D17">
+        <v>11787.4316720094</v>
+      </c>
+      <c r="E17">
+        <v>-4976.895</v>
+      </c>
+      <c r="F17">
+        <v>1835.205</v>
+      </c>
+      <c r="G17">
+        <v>1310</v>
+      </c>
+      <c r="H17">
+        <v>5422.6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>803.8</v>
+      </c>
+      <c r="K17">
+        <v>585.9</v>
+      </c>
+      <c r="L17">
+        <v>217.9</v>
+      </c>
+      <c r="M17">
+        <v>36.7041</v>
+      </c>
+      <c r="N17">
+        <v>181.1959</v>
+      </c>
+      <c r="O17">
+        <v>43.487016</v>
+      </c>
+      <c r="P17">
+        <v>137.708884</v>
+      </c>
+      <c r="Q17">
+        <v>723.608884</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07602792270382362</v>
+      </c>
+      <c r="T17">
+        <v>0.9738607311792362</v>
+      </c>
+      <c r="U17">
+        <v>0.02</v>
+      </c>
+      <c r="V17">
+        <v>0.24</v>
+      </c>
+      <c r="W17">
+        <v>0.0152</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>5.936666475952278</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06695528583111751</v>
+      </c>
+      <c r="C18">
+        <v>11129.3401323557</v>
+      </c>
+      <c r="D18">
+        <v>11776.8921323557</v>
+      </c>
+      <c r="E18">
+        <v>-4854.548000000001</v>
+      </c>
+      <c r="F18">
+        <v>1957.552</v>
+      </c>
+      <c r="G18">
+        <v>1310</v>
+      </c>
+      <c r="H18">
+        <v>5422.6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>803.8</v>
+      </c>
+      <c r="K18">
+        <v>585.9</v>
+      </c>
+      <c r="L18">
+        <v>217.9</v>
+      </c>
+      <c r="M18">
+        <v>41.3043472</v>
+      </c>
+      <c r="N18">
+        <v>176.5956528</v>
+      </c>
+      <c r="O18">
+        <v>42.38295667199999</v>
+      </c>
+      <c r="P18">
+        <v>134.212696128</v>
+      </c>
+      <c r="Q18">
+        <v>720.1126961279999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07665419741799705</v>
+      </c>
+      <c r="T18">
+        <v>0.9830008980891384</v>
+      </c>
+      <c r="U18">
+        <v>0.0211</v>
+      </c>
+      <c r="V18">
+        <v>0.24</v>
+      </c>
+      <c r="W18">
+        <v>0.016036</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>5.275473764175602</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06688143736398493</v>
+      </c>
+      <c r="C19">
+        <v>11022.09705249689</v>
+      </c>
+      <c r="D19">
+        <v>11791.99605249689</v>
+      </c>
+      <c r="E19">
+        <v>-4732.201</v>
+      </c>
+      <c r="F19">
+        <v>2079.899</v>
+      </c>
+      <c r="G19">
+        <v>1310</v>
+      </c>
+      <c r="H19">
+        <v>5422.6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>803.8</v>
+      </c>
+      <c r="K19">
+        <v>585.9</v>
+      </c>
+      <c r="L19">
+        <v>217.9</v>
+      </c>
+      <c r="M19">
+        <v>43.88586890000001</v>
+      </c>
+      <c r="N19">
+        <v>174.0141311</v>
+      </c>
+      <c r="O19">
+        <v>41.76339146399999</v>
+      </c>
+      <c r="P19">
+        <v>132.250739636</v>
+      </c>
+      <c r="Q19">
+        <v>718.150739636</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07729556308913847</v>
+      </c>
+      <c r="T19">
+        <v>0.992361309984821</v>
+      </c>
+      <c r="U19">
+        <v>0.0211</v>
+      </c>
+      <c r="V19">
+        <v>0.24</v>
+      </c>
+      <c r="W19">
+        <v>0.016036</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>4.965151778047625</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06680758889685236</v>
+      </c>
+      <c r="C20">
+        <v>10914.89276408704</v>
+      </c>
+      <c r="D20">
+        <v>11807.13876408704</v>
+      </c>
+      <c r="E20">
+        <v>-4609.854</v>
+      </c>
+      <c r="F20">
+        <v>2202.246</v>
+      </c>
+      <c r="G20">
+        <v>1310</v>
+      </c>
+      <c r="H20">
+        <v>5422.6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>803.8</v>
+      </c>
+      <c r="K20">
+        <v>585.9</v>
+      </c>
+      <c r="L20">
+        <v>217.9</v>
+      </c>
+      <c r="M20">
+        <v>46.4673906</v>
+      </c>
+      <c r="N20">
+        <v>171.4326094</v>
+      </c>
+      <c r="O20">
+        <v>41.143826256</v>
+      </c>
+      <c r="P20">
+        <v>130.288783144</v>
+      </c>
+      <c r="Q20">
+        <v>716.1887831439999</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07795257182542971</v>
+      </c>
+      <c r="T20">
+        <v>1.001950024609667</v>
+      </c>
+      <c r="U20">
+        <v>0.0211</v>
+      </c>
+      <c r="V20">
+        <v>0.24</v>
+      </c>
+      <c r="W20">
+        <v>0.016036</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>4.689310012600535</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06673374042971979</v>
+      </c>
+      <c r="C21">
+        <v>10807.72741676064</v>
+      </c>
+      <c r="D21">
+        <v>11822.32041676064</v>
+      </c>
+      <c r="E21">
+        <v>-4487.507</v>
+      </c>
+      <c r="F21">
+        <v>2324.593</v>
+      </c>
+      <c r="G21">
+        <v>1310</v>
+      </c>
+      <c r="H21">
+        <v>5422.6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>803.8</v>
+      </c>
+      <c r="K21">
+        <v>585.9</v>
+      </c>
+      <c r="L21">
+        <v>217.9</v>
+      </c>
+      <c r="M21">
+        <v>49.0489123</v>
+      </c>
+      <c r="N21">
+        <v>168.8510877</v>
+      </c>
+      <c r="O21">
+        <v>40.52426104799999</v>
+      </c>
+      <c r="P21">
+        <v>128.326826652</v>
+      </c>
+      <c r="Q21">
+        <v>714.226826652</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07862580299965406</v>
+      </c>
+      <c r="T21">
+        <v>1.011775497620311</v>
+      </c>
+      <c r="U21">
+        <v>0.0211</v>
+      </c>
+      <c r="V21">
+        <v>0.24</v>
+      </c>
+      <c r="W21">
+        <v>0.016036</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>4.442504222463664</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06688789196258721</v>
+      </c>
+      <c r="C22">
+        <v>10653.73437534142</v>
+      </c>
+      <c r="D22">
+        <v>11790.67437534142</v>
+      </c>
+      <c r="E22">
+        <v>-4365.16</v>
+      </c>
+      <c r="F22">
+        <v>2446.94</v>
+      </c>
+      <c r="G22">
+        <v>1310</v>
+      </c>
+      <c r="H22">
+        <v>5422.6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>803.8</v>
+      </c>
+      <c r="K22">
+        <v>585.9</v>
+      </c>
+      <c r="L22">
+        <v>217.9</v>
+      </c>
+      <c r="M22">
+        <v>55.300844</v>
+      </c>
+      <c r="N22">
+        <v>162.599156</v>
+      </c>
+      <c r="O22">
+        <v>39.02379744</v>
+      </c>
+      <c r="P22">
+        <v>123.57535856</v>
+      </c>
+      <c r="Q22">
+        <v>709.47535856</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07931586495323401</v>
+      </c>
+      <c r="T22">
+        <v>1.021846607456221</v>
+      </c>
+      <c r="U22">
+        <v>0.0226</v>
+      </c>
+      <c r="V22">
+        <v>0.24</v>
+      </c>
+      <c r="W22">
+        <v>0.017176</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>3.940265360145317</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06682544349545465</v>
+      </c>
+      <c r="C23">
+        <v>10544.1870948474</v>
+      </c>
+      <c r="D23">
+        <v>11803.4740948474</v>
+      </c>
+      <c r="E23">
+        <v>-4242.813</v>
+      </c>
+      <c r="F23">
+        <v>2569.287</v>
+      </c>
+      <c r="G23">
+        <v>1310</v>
+      </c>
+      <c r="H23">
+        <v>5422.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>803.8</v>
+      </c>
+      <c r="K23">
+        <v>585.9</v>
+      </c>
+      <c r="L23">
+        <v>217.9</v>
+      </c>
+      <c r="M23">
+        <v>58.0658862</v>
+      </c>
+      <c r="N23">
+        <v>159.8341138</v>
+      </c>
+      <c r="O23">
+        <v>38.36018731199999</v>
+      </c>
+      <c r="P23">
+        <v>121.473926488</v>
+      </c>
+      <c r="Q23">
+        <v>707.3739264879999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08002339682968941</v>
+      </c>
+      <c r="T23">
+        <v>1.032172682098104</v>
+      </c>
+      <c r="U23">
+        <v>0.0226</v>
+      </c>
+      <c r="V23">
+        <v>0.24</v>
+      </c>
+      <c r="W23">
+        <v>0.017176</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>3.752633676328873</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06676299502832207</v>
+      </c>
+      <c r="C24">
+        <v>10434.66763479201</v>
+      </c>
+      <c r="D24">
+        <v>11816.30163479201</v>
+      </c>
+      <c r="E24">
+        <v>-4120.466</v>
+      </c>
+      <c r="F24">
+        <v>2691.634</v>
+      </c>
+      <c r="G24">
+        <v>1310</v>
+      </c>
+      <c r="H24">
+        <v>5422.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>803.8</v>
+      </c>
+      <c r="K24">
+        <v>585.9</v>
+      </c>
+      <c r="L24">
+        <v>217.9</v>
+      </c>
+      <c r="M24">
+        <v>60.8309284</v>
+      </c>
+      <c r="N24">
+        <v>157.0690716</v>
+      </c>
+      <c r="O24">
+        <v>37.69657718399999</v>
+      </c>
+      <c r="P24">
+        <v>119.372494416</v>
+      </c>
+      <c r="Q24">
+        <v>705.272494416</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08074907054913086</v>
+      </c>
+      <c r="T24">
+        <v>1.042763527884651</v>
+      </c>
+      <c r="U24">
+        <v>0.0226</v>
+      </c>
+      <c r="V24">
+        <v>0.24</v>
+      </c>
+      <c r="W24">
+        <v>0.017176</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>3.582059418313924</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06670054656118951</v>
+      </c>
+      <c r="C25">
+        <v>10325.17608597629</v>
+      </c>
+      <c r="D25">
+        <v>11829.15708597629</v>
+      </c>
+      <c r="E25">
+        <v>-3998.119</v>
+      </c>
+      <c r="F25">
+        <v>2813.981</v>
+      </c>
+      <c r="G25">
+        <v>1310</v>
+      </c>
+      <c r="H25">
+        <v>5422.6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>803.8</v>
+      </c>
+      <c r="K25">
+        <v>585.9</v>
+      </c>
+      <c r="L25">
+        <v>217.9</v>
+      </c>
+      <c r="M25">
+        <v>63.5959706</v>
+      </c>
+      <c r="N25">
+        <v>154.3040294</v>
+      </c>
+      <c r="O25">
+        <v>37.032967056</v>
+      </c>
+      <c r="P25">
+        <v>117.271062344</v>
+      </c>
+      <c r="Q25">
+        <v>703.171062344</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08149359293660974</v>
+      </c>
+      <c r="T25">
+        <v>1.053629460574744</v>
+      </c>
+      <c r="U25">
+        <v>0.0226</v>
+      </c>
+      <c r="V25">
+        <v>0.24</v>
+      </c>
+      <c r="W25">
+        <v>0.017176</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>3.426317704474189</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06663809809405692</v>
+      </c>
+      <c r="C26">
+        <v>10215.71253959692</v>
+      </c>
+      <c r="D26">
+        <v>11842.04053959692</v>
+      </c>
+      <c r="E26">
+        <v>-3875.772</v>
+      </c>
+      <c r="F26">
+        <v>2936.328</v>
+      </c>
+      <c r="G26">
+        <v>1310</v>
+      </c>
+      <c r="H26">
+        <v>5422.6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>803.8</v>
+      </c>
+      <c r="K26">
+        <v>585.9</v>
+      </c>
+      <c r="L26">
+        <v>217.9</v>
+      </c>
+      <c r="M26">
+        <v>66.3610128</v>
+      </c>
+      <c r="N26">
+        <v>151.5389872</v>
+      </c>
+      <c r="O26">
+        <v>36.36935692799999</v>
+      </c>
+      <c r="P26">
+        <v>115.169630272</v>
+      </c>
+      <c r="Q26">
+        <v>701.0696302719999</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08225770801849595</v>
+      </c>
+      <c r="T26">
+        <v>1.064781338861945</v>
+      </c>
+      <c r="U26">
+        <v>0.0226</v>
+      </c>
+      <c r="V26">
+        <v>0.24</v>
+      </c>
+      <c r="W26">
+        <v>0.017176</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>3.283554466787764</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06657564962692436</v>
+      </c>
+      <c r="C27">
+        <v>10106.27708724826</v>
+      </c>
+      <c r="D27">
+        <v>11854.95208724826</v>
+      </c>
+      <c r="E27">
+        <v>-3753.425</v>
+      </c>
+      <c r="F27">
+        <v>3058.675</v>
+      </c>
+      <c r="G27">
+        <v>1310</v>
+      </c>
+      <c r="H27">
+        <v>5422.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>803.8</v>
+      </c>
+      <c r="K27">
+        <v>585.9</v>
+      </c>
+      <c r="L27">
+        <v>217.9</v>
+      </c>
+      <c r="M27">
+        <v>69.12605499999999</v>
+      </c>
+      <c r="N27">
+        <v>148.773945</v>
+      </c>
+      <c r="O27">
+        <v>35.70574679999999</v>
+      </c>
+      <c r="P27">
+        <v>113.0681982</v>
+      </c>
+      <c r="Q27">
+        <v>698.9681982</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08304219950256581</v>
+      </c>
+      <c r="T27">
+        <v>1.076230600570138</v>
+      </c>
+      <c r="U27">
+        <v>0.0226</v>
+      </c>
+      <c r="V27">
+        <v>0.24</v>
+      </c>
+      <c r="W27">
+        <v>0.017176</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>3.152212288116254</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06651320115979177</v>
+      </c>
+      <c r="C28">
+        <v>9996.869820924605</v>
+      </c>
+      <c r="D28">
+        <v>11867.89182092461</v>
+      </c>
+      <c r="E28">
+        <v>-3631.078</v>
+      </c>
+      <c r="F28">
+        <v>3181.022</v>
+      </c>
+      <c r="G28">
+        <v>1310</v>
+      </c>
+      <c r="H28">
+        <v>5422.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>803.8</v>
+      </c>
+      <c r="K28">
+        <v>585.9</v>
+      </c>
+      <c r="L28">
+        <v>217.9</v>
+      </c>
+      <c r="M28">
+        <v>71.8910972</v>
+      </c>
+      <c r="N28">
+        <v>146.0089028</v>
+      </c>
+      <c r="O28">
+        <v>35.042136672</v>
+      </c>
+      <c r="P28">
+        <v>110.966766128</v>
+      </c>
+      <c r="Q28">
+        <v>696.866766128</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08384789345917806</v>
+      </c>
+      <c r="T28">
+        <v>1.087989301783958</v>
+      </c>
+      <c r="U28">
+        <v>0.0226</v>
+      </c>
+      <c r="V28">
+        <v>0.24</v>
+      </c>
+      <c r="W28">
+        <v>0.017176</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>3.030973353957936</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09741165065878724</v>
+      </c>
+      <c r="C29">
+        <v>5712.76381009384</v>
+      </c>
+      <c r="D29">
+        <v>7706.132810093841</v>
+      </c>
+      <c r="E29">
+        <v>-3508.731</v>
+      </c>
+      <c r="F29">
+        <v>3303.369000000001</v>
+      </c>
+      <c r="G29">
+        <v>1310</v>
+      </c>
+      <c r="H29">
+        <v>5422.6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>803.8</v>
+      </c>
+      <c r="K29">
+        <v>585.9</v>
+      </c>
+      <c r="L29">
+        <v>217.9</v>
+      </c>
+      <c r="M29">
+        <v>463.1323338000001</v>
+      </c>
+      <c r="N29">
+        <v>-245.2323338000001</v>
+      </c>
+      <c r="O29">
+        <v>-58.85576011200002</v>
+      </c>
+      <c r="P29">
+        <v>-186.3765736880001</v>
+      </c>
+      <c r="Q29">
+        <v>399.5234263119999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08744116509790803</v>
+      </c>
+      <c r="T29">
+        <v>1.140431308122912</v>
+      </c>
+      <c r="U29">
+        <v>0.1402</v>
+      </c>
+      <c r="V29">
+        <v>0.112918049946786</v>
+      </c>
+      <c r="W29">
+        <v>0.1243688893974606</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.4704918747782751</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09872065065878723</v>
+      </c>
+      <c r="C30">
+        <v>5477.609222874373</v>
+      </c>
+      <c r="D30">
+        <v>7593.325222874374</v>
+      </c>
+      <c r="E30">
+        <v>-3386.384</v>
+      </c>
+      <c r="F30">
+        <v>3425.716</v>
+      </c>
+      <c r="G30">
+        <v>1310</v>
+      </c>
+      <c r="H30">
+        <v>5422.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>803.8</v>
+      </c>
+      <c r="K30">
+        <v>585.9</v>
+      </c>
+      <c r="L30">
+        <v>217.9</v>
+      </c>
+      <c r="M30">
+        <v>480.2853832</v>
+      </c>
+      <c r="N30">
+        <v>-262.3853832</v>
+      </c>
+      <c r="O30">
+        <v>-62.97249196800001</v>
+      </c>
+      <c r="P30">
+        <v>-199.412891232</v>
+      </c>
+      <c r="Q30">
+        <v>386.487108768</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0885264590576012</v>
+      </c>
+      <c r="T30">
+        <v>1.156270631846841</v>
+      </c>
+      <c r="U30">
+        <v>0.1402</v>
+      </c>
+      <c r="V30">
+        <v>0.1088852624486866</v>
+      </c>
+      <c r="W30">
+        <v>0.1249342862046941</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.453688593536194</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1000296506587872</v>
+      </c>
+      <c r="C31">
+        <v>5245.709693524037</v>
+      </c>
+      <c r="D31">
+        <v>7483.772693524037</v>
+      </c>
+      <c r="E31">
+        <v>-3264.037</v>
+      </c>
+      <c r="F31">
+        <v>3548.063</v>
+      </c>
+      <c r="G31">
+        <v>1310</v>
+      </c>
+      <c r="H31">
+        <v>5422.6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>803.8</v>
+      </c>
+      <c r="K31">
+        <v>585.9</v>
+      </c>
+      <c r="L31">
+        <v>217.9</v>
+      </c>
+      <c r="M31">
+        <v>497.4384326</v>
+      </c>
+      <c r="N31">
+        <v>-279.5384326</v>
+      </c>
+      <c r="O31">
+        <v>-67.089223824</v>
+      </c>
+      <c r="P31">
+        <v>-212.449208776</v>
+      </c>
+      <c r="Q31">
+        <v>373.4507912239999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.0896423246781308</v>
+      </c>
+      <c r="T31">
+        <v>1.172556133703839</v>
+      </c>
+      <c r="U31">
+        <v>0.1402</v>
+      </c>
+      <c r="V31">
+        <v>0.1051305982263181</v>
+      </c>
+      <c r="W31">
+        <v>0.1254606901286702</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.4380441592763252</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1013386506587872</v>
+      </c>
+      <c r="C32">
+        <v>5016.9263389523</v>
+      </c>
+      <c r="D32">
+        <v>7377.3363389523</v>
+      </c>
+      <c r="E32">
+        <v>-3141.69</v>
+      </c>
+      <c r="F32">
+        <v>3670.41</v>
+      </c>
+      <c r="G32">
+        <v>1310</v>
+      </c>
+      <c r="H32">
+        <v>5422.6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>803.8</v>
+      </c>
+      <c r="K32">
+        <v>585.9</v>
+      </c>
+      <c r="L32">
+        <v>217.9</v>
+      </c>
+      <c r="M32">
+        <v>514.591482</v>
+      </c>
+      <c r="N32">
+        <v>-296.6914820000001</v>
+      </c>
+      <c r="O32">
+        <v>-71.20595568000002</v>
+      </c>
+      <c r="P32">
+        <v>-225.48552632</v>
+      </c>
+      <c r="Q32">
+        <v>360.4144736799999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09079007217353267</v>
+      </c>
+      <c r="T32">
+        <v>1.189306935613894</v>
+      </c>
+      <c r="U32">
+        <v>0.1402</v>
+      </c>
+      <c r="V32">
+        <v>0.1016262449521074</v>
+      </c>
+      <c r="W32">
+        <v>0.1259520004577145</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.4234426873004477</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1026476506587872</v>
+      </c>
+      <c r="C33">
+        <v>4791.128066214997</v>
+      </c>
+      <c r="D33">
+        <v>7273.885066214997</v>
+      </c>
+      <c r="E33">
+        <v>-3019.343</v>
+      </c>
+      <c r="F33">
+        <v>3792.757</v>
+      </c>
+      <c r="G33">
+        <v>1310</v>
+      </c>
+      <c r="H33">
+        <v>5422.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>803.8</v>
+      </c>
+      <c r="K33">
+        <v>585.9</v>
+      </c>
+      <c r="L33">
+        <v>217.9</v>
+      </c>
+      <c r="M33">
+        <v>531.7445314</v>
+      </c>
+      <c r="N33">
+        <v>-313.8445314000001</v>
+      </c>
+      <c r="O33">
+        <v>-75.322687536</v>
+      </c>
+      <c r="P33">
+        <v>-238.5218438640001</v>
+      </c>
+      <c r="Q33">
+        <v>347.3781561359999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09197108771227952</v>
+      </c>
+      <c r="T33">
+        <v>1.206543268014096</v>
+      </c>
+      <c r="U33">
+        <v>0.1402</v>
+      </c>
+      <c r="V33">
+        <v>0.09834797898591044</v>
+      </c>
+      <c r="W33">
+        <v>0.1264116133461753</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.4097832457746268</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1039566506587872</v>
+      </c>
+      <c r="C34">
+        <v>4568.191033867474</v>
+      </c>
+      <c r="D34">
+        <v>7173.295033867475</v>
+      </c>
+      <c r="E34">
+        <v>-2896.996</v>
+      </c>
+      <c r="F34">
+        <v>3915.104</v>
+      </c>
+      <c r="G34">
+        <v>1310</v>
+      </c>
+      <c r="H34">
+        <v>5422.6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>803.8</v>
+      </c>
+      <c r="K34">
+        <v>585.9</v>
+      </c>
+      <c r="L34">
+        <v>217.9</v>
+      </c>
+      <c r="M34">
+        <v>548.8975808</v>
+      </c>
+      <c r="N34">
+        <v>-330.9975808</v>
+      </c>
+      <c r="O34">
+        <v>-79.439419392</v>
+      </c>
+      <c r="P34">
+        <v>-251.558161408</v>
+      </c>
+      <c r="Q34">
+        <v>334.3418385919999</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09318683900216598</v>
+      </c>
+      <c r="T34">
+        <v>1.224286551367244</v>
+      </c>
+      <c r="U34">
+        <v>0.1402</v>
+      </c>
+      <c r="V34">
+        <v>0.09527460464260074</v>
+      </c>
+      <c r="W34">
+        <v>0.1268425004291074</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.3969775193441697</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1052656506587872</v>
+      </c>
+      <c r="C35">
+        <v>4347.998157401544</v>
+      </c>
+      <c r="D35">
+        <v>7075.449157401544</v>
+      </c>
+      <c r="E35">
+        <v>-2774.649</v>
+      </c>
+      <c r="F35">
+        <v>4037.451</v>
+      </c>
+      <c r="G35">
+        <v>1310</v>
+      </c>
+      <c r="H35">
+        <v>5422.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>803.8</v>
+      </c>
+      <c r="K35">
+        <v>585.9</v>
+      </c>
+      <c r="L35">
+        <v>217.9</v>
+      </c>
+      <c r="M35">
+        <v>566.0506302</v>
+      </c>
+      <c r="N35">
+        <v>-348.1506302</v>
+      </c>
+      <c r="O35">
+        <v>-83.55615124800001</v>
+      </c>
+      <c r="P35">
+        <v>-264.594478952</v>
+      </c>
+      <c r="Q35">
+        <v>321.3055210479999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09443888137533264</v>
+      </c>
+      <c r="T35">
+        <v>1.24255948496974</v>
+      </c>
+      <c r="U35">
+        <v>0.1402</v>
+      </c>
+      <c r="V35">
+        <v>0.09238749541100677</v>
+      </c>
+      <c r="W35">
+        <v>0.1272472731433768</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.3849478975458616</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1065746506587872</v>
+      </c>
+      <c r="C36">
+        <v>4130.438654613676</v>
+      </c>
+      <c r="D36">
+        <v>6980.236654613677</v>
+      </c>
+      <c r="E36">
+        <v>-2652.302</v>
+      </c>
+      <c r="F36">
+        <v>4159.798000000001</v>
+      </c>
+      <c r="G36">
+        <v>1310</v>
+      </c>
+      <c r="H36">
+        <v>5422.6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>803.8</v>
+      </c>
+      <c r="K36">
+        <v>585.9</v>
+      </c>
+      <c r="L36">
+        <v>217.9</v>
+      </c>
+      <c r="M36">
+        <v>583.2036796000001</v>
+      </c>
+      <c r="N36">
+        <v>-365.3036796000001</v>
+      </c>
+      <c r="O36">
+        <v>-87.67288310400002</v>
+      </c>
+      <c r="P36">
+        <v>-277.6307964960001</v>
+      </c>
+      <c r="Q36">
+        <v>308.2692035039998</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09572886442647403</v>
+      </c>
+      <c r="T36">
+        <v>1.261386143832918</v>
+      </c>
+      <c r="U36">
+        <v>0.1402</v>
+      </c>
+      <c r="V36">
+        <v>0.08967021613421244</v>
+      </c>
+      <c r="W36">
+        <v>0.1276282356979834</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.3736259005592185</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1078836506587872</v>
+      </c>
+      <c r="C37">
+        <v>3915.407627193001</v>
+      </c>
+      <c r="D37">
+        <v>6887.552627193001</v>
+      </c>
+      <c r="E37">
+        <v>-2529.955</v>
+      </c>
+      <c r="F37">
+        <v>4282.145</v>
+      </c>
+      <c r="G37">
+        <v>1310</v>
+      </c>
+      <c r="H37">
+        <v>5422.6</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>803.8</v>
+      </c>
+      <c r="K37">
+        <v>585.9</v>
+      </c>
+      <c r="L37">
+        <v>217.9</v>
+      </c>
+      <c r="M37">
+        <v>600.356729</v>
+      </c>
+      <c r="N37">
+        <v>-382.456729</v>
+      </c>
+      <c r="O37">
+        <v>-91.78961495999999</v>
+      </c>
+      <c r="P37">
+        <v>-290.66711404</v>
+      </c>
+      <c r="Q37">
+        <v>295.23288596</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09705853926380441</v>
+      </c>
+      <c r="T37">
+        <v>1.28079208450727</v>
+      </c>
+      <c r="U37">
+        <v>0.1402</v>
+      </c>
+      <c r="V37">
+        <v>0.08710820995894925</v>
+      </c>
+      <c r="W37">
+        <v>0.1279874289637553</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.3629508748289552</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1091926506587872</v>
+      </c>
+      <c r="C38">
+        <v>3702.805675206674</v>
+      </c>
+      <c r="D38">
+        <v>6797.297675206674</v>
+      </c>
+      <c r="E38">
+        <v>-2407.608</v>
+      </c>
+      <c r="F38">
+        <v>4404.492</v>
+      </c>
+      <c r="G38">
+        <v>1310</v>
+      </c>
+      <c r="H38">
+        <v>5422.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>803.8</v>
+      </c>
+      <c r="K38">
+        <v>585.9</v>
+      </c>
+      <c r="L38">
+        <v>217.9</v>
+      </c>
+      <c r="M38">
+        <v>617.5097784</v>
+      </c>
+      <c r="N38">
+        <v>-399.6097784</v>
+      </c>
+      <c r="O38">
+        <v>-95.906346816</v>
+      </c>
+      <c r="P38">
+        <v>-303.703431584</v>
+      </c>
+      <c r="Q38">
+        <v>282.196568416</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09842976643980135</v>
+      </c>
+      <c r="T38">
+        <v>1.300804460827697</v>
+      </c>
+      <c r="U38">
+        <v>0.1402</v>
+      </c>
+      <c r="V38">
+        <v>0.08468853746008954</v>
+      </c>
+      <c r="W38">
+        <v>0.1283266670480954</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.3528689060837065</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1105016506587872</v>
+      </c>
+      <c r="C39">
+        <v>3492.538541504064</v>
+      </c>
+      <c r="D39">
+        <v>6709.377541504064</v>
+      </c>
+      <c r="E39">
+        <v>-2285.261</v>
+      </c>
+      <c r="F39">
+        <v>4526.839</v>
+      </c>
+      <c r="G39">
+        <v>1310</v>
+      </c>
+      <c r="H39">
+        <v>5422.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>803.8</v>
+      </c>
+      <c r="K39">
+        <v>585.9</v>
+      </c>
+      <c r="L39">
+        <v>217.9</v>
+      </c>
+      <c r="M39">
+        <v>634.6628277999999</v>
+      </c>
+      <c r="N39">
+        <v>-416.7628278</v>
+      </c>
+      <c r="O39">
+        <v>-100.023078672</v>
+      </c>
+      <c r="P39">
+        <v>-316.739749128</v>
+      </c>
+      <c r="Q39">
+        <v>269.160250872</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09984452463725851</v>
+      </c>
+      <c r="T39">
+        <v>1.321452150682104</v>
+      </c>
+      <c r="U39">
+        <v>0.1402</v>
+      </c>
+      <c r="V39">
+        <v>0.08239965806927631</v>
+      </c>
+      <c r="W39">
+        <v>0.1286475679386875</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.3433319086219847</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1118106506587872</v>
+      </c>
+      <c r="C40">
+        <v>3284.516783365399</v>
+      </c>
+      <c r="D40">
+        <v>6623.702783365399</v>
+      </c>
+      <c r="E40">
+        <v>-2162.914</v>
+      </c>
+      <c r="F40">
+        <v>4649.186000000001</v>
+      </c>
+      <c r="G40">
+        <v>1310</v>
+      </c>
+      <c r="H40">
+        <v>5422.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>803.8</v>
+      </c>
+      <c r="K40">
+        <v>585.9</v>
+      </c>
+      <c r="L40">
+        <v>217.9</v>
+      </c>
+      <c r="M40">
+        <v>651.8158772</v>
+      </c>
+      <c r="N40">
+        <v>-433.9158772000001</v>
+      </c>
+      <c r="O40">
+        <v>-104.139810528</v>
+      </c>
+      <c r="P40">
+        <v>-329.7760666720001</v>
+      </c>
+      <c r="Q40">
+        <v>256.1239333279999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.101304920195924</v>
+      </c>
+      <c r="T40">
+        <v>1.342765895047945</v>
+      </c>
+      <c r="U40">
+        <v>0.1402</v>
+      </c>
+      <c r="V40">
+        <v>0.08023124601482166</v>
+      </c>
+      <c r="W40">
+        <v>0.128951579308722</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.3342968583950903</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1131196506587872</v>
+      </c>
+      <c r="C41">
+        <v>3078.655468990352</v>
+      </c>
+      <c r="D41">
+        <v>6540.188468990353</v>
+      </c>
+      <c r="E41">
+        <v>-2040.567</v>
+      </c>
+      <c r="F41">
+        <v>4771.533</v>
+      </c>
+      <c r="G41">
+        <v>1310</v>
+      </c>
+      <c r="H41">
+        <v>5422.6</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>803.8</v>
+      </c>
+      <c r="K41">
+        <v>585.9</v>
+      </c>
+      <c r="L41">
+        <v>217.9</v>
+      </c>
+      <c r="M41">
+        <v>668.9689266</v>
+      </c>
+      <c r="N41">
+        <v>-451.0689266000001</v>
+      </c>
+      <c r="O41">
+        <v>-108.256542384</v>
+      </c>
+      <c r="P41">
+        <v>-342.8123842160001</v>
+      </c>
+      <c r="Q41">
+        <v>243.0876157839999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.102813197576185</v>
+      </c>
+      <c r="T41">
+        <v>1.364778450704468</v>
+      </c>
+      <c r="U41">
+        <v>0.1402</v>
+      </c>
+      <c r="V41">
+        <v>0.0781740345785442</v>
+      </c>
+      <c r="W41">
+        <v>0.1292400003520881</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.3257251440772675</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1144286506587872</v>
+      </c>
+      <c r="C42">
+        <v>2874.873896661494</v>
+      </c>
+      <c r="D42">
+        <v>6458.753896661494</v>
+      </c>
+      <c r="E42">
+        <v>-1918.22</v>
+      </c>
+      <c r="F42">
+        <v>4893.88</v>
+      </c>
+      <c r="G42">
+        <v>1310</v>
+      </c>
+      <c r="H42">
+        <v>5422.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>803.8</v>
+      </c>
+      <c r="K42">
+        <v>585.9</v>
+      </c>
+      <c r="L42">
+        <v>217.9</v>
+      </c>
+      <c r="M42">
+        <v>686.121976</v>
+      </c>
+      <c r="N42">
+        <v>-468.221976</v>
+      </c>
+      <c r="O42">
+        <v>-112.37327424</v>
+      </c>
+      <c r="P42">
+        <v>-355.84870176</v>
+      </c>
+      <c r="Q42">
+        <v>230.0512982399999</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1043717508691215</v>
+      </c>
+      <c r="T42">
+        <v>1.38752475821621</v>
+      </c>
+      <c r="U42">
+        <v>0.1402</v>
+      </c>
+      <c r="V42">
+        <v>0.07621968371408058</v>
+      </c>
+      <c r="W42">
+        <v>0.1295140003432859</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.3175820154753358</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1157376506587872</v>
+      </c>
+      <c r="C43">
+        <v>2673.095334630563</v>
+      </c>
+      <c r="D43">
+        <v>6379.322334630564</v>
+      </c>
+      <c r="E43">
+        <v>-1795.873</v>
+      </c>
+      <c r="F43">
+        <v>5016.227000000001</v>
+      </c>
+      <c r="G43">
+        <v>1310</v>
+      </c>
+      <c r="H43">
+        <v>5422.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>803.8</v>
+      </c>
+      <c r="K43">
+        <v>585.9</v>
+      </c>
+      <c r="L43">
+        <v>217.9</v>
+      </c>
+      <c r="M43">
+        <v>703.2750254000001</v>
+      </c>
+      <c r="N43">
+        <v>-485.3750254000001</v>
+      </c>
+      <c r="O43">
+        <v>-116.490006096</v>
+      </c>
+      <c r="P43">
+        <v>-368.8850193040001</v>
+      </c>
+      <c r="Q43">
+        <v>217.0149806959998</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1059831364770727</v>
+      </c>
+      <c r="T43">
+        <v>1.411042126999535</v>
+      </c>
+      <c r="U43">
+        <v>0.1402</v>
+      </c>
+      <c r="V43">
+        <v>0.07436066703812738</v>
+      </c>
+      <c r="W43">
+        <v>0.1297746344812545</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.3098361126588641</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1170466506587872</v>
+      </c>
+      <c r="C44">
+        <v>2473.246779965297</v>
+      </c>
+      <c r="D44">
+        <v>6301.820779965297</v>
+      </c>
+      <c r="E44">
+        <v>-1673.526</v>
+      </c>
+      <c r="F44">
+        <v>5138.574000000001</v>
+      </c>
+      <c r="G44">
+        <v>1310</v>
+      </c>
+      <c r="H44">
+        <v>5422.6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>803.8</v>
+      </c>
+      <c r="K44">
+        <v>585.9</v>
+      </c>
+      <c r="L44">
+        <v>217.9</v>
+      </c>
+      <c r="M44">
+        <v>720.4280748</v>
+      </c>
+      <c r="N44">
+        <v>-502.5280748</v>
+      </c>
+      <c r="O44">
+        <v>-120.606737952</v>
+      </c>
+      <c r="P44">
+        <v>-381.921336848</v>
+      </c>
+      <c r="Q44">
+        <v>203.978663152</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1076500871059877</v>
+      </c>
+      <c r="T44">
+        <v>1.43537043953401</v>
+      </c>
+      <c r="U44">
+        <v>0.1402</v>
+      </c>
+      <c r="V44">
+        <v>0.07259017496579104</v>
+      </c>
+      <c r="W44">
+        <v>0.1300228574697961</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.3024590623574627</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1183556506587872</v>
+      </c>
+      <c r="C45">
+        <v>2275.258734763666</v>
+      </c>
+      <c r="D45">
+        <v>6226.179734763667</v>
+      </c>
+      <c r="E45">
+        <v>-1551.179</v>
+      </c>
+      <c r="F45">
+        <v>5260.921</v>
+      </c>
+      <c r="G45">
+        <v>1310</v>
+      </c>
+      <c r="H45">
+        <v>5422.6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>803.8</v>
+      </c>
+      <c r="K45">
+        <v>585.9</v>
+      </c>
+      <c r="L45">
+        <v>217.9</v>
+      </c>
+      <c r="M45">
+        <v>737.5811242</v>
+      </c>
+      <c r="N45">
+        <v>-519.6811242</v>
+      </c>
+      <c r="O45">
+        <v>-124.723469808</v>
+      </c>
+      <c r="P45">
+        <v>-394.957654392</v>
+      </c>
+      <c r="Q45">
+        <v>190.942345608</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1093755272306541</v>
+      </c>
+      <c r="T45">
+        <v>1.460552377069694</v>
+      </c>
+      <c r="U45">
+        <v>0.1402</v>
+      </c>
+      <c r="V45">
+        <v>0.07090203136193543</v>
+      </c>
+      <c r="W45">
+        <v>0.1302595352030566</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.295425130674731</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1196646506587872</v>
+      </c>
+      <c r="C46">
+        <v>2079.064998293644</v>
+      </c>
+      <c r="D46">
+        <v>6152.332998293644</v>
+      </c>
+      <c r="E46">
+        <v>-1428.832</v>
+      </c>
+      <c r="F46">
+        <v>5383.268</v>
+      </c>
+      <c r="G46">
+        <v>1310</v>
+      </c>
+      <c r="H46">
+        <v>5422.6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>803.8</v>
+      </c>
+      <c r="K46">
+        <v>585.9</v>
+      </c>
+      <c r="L46">
+        <v>217.9</v>
+      </c>
+      <c r="M46">
+        <v>754.7341736</v>
+      </c>
+      <c r="N46">
+        <v>-536.8341736</v>
+      </c>
+      <c r="O46">
+        <v>-128.840201664</v>
+      </c>
+      <c r="P46">
+        <v>-407.993971936</v>
+      </c>
+      <c r="Q46">
+        <v>177.906028064</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1111625902169158</v>
+      </c>
+      <c r="T46">
+        <v>1.486633669517367</v>
+      </c>
+      <c r="U46">
+        <v>0.1402</v>
+      </c>
+      <c r="V46">
+        <v>0.06929062155825508</v>
+      </c>
+      <c r="W46">
+        <v>0.1304854548575326</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.2887109231593962</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1209736506587872</v>
+      </c>
+      <c r="C47">
+        <v>1884.602473751752</v>
+      </c>
+      <c r="D47">
+        <v>6080.217473751753</v>
+      </c>
+      <c r="E47">
+        <v>-1306.485</v>
+      </c>
+      <c r="F47">
+        <v>5505.615000000001</v>
+      </c>
+      <c r="G47">
+        <v>1310</v>
+      </c>
+      <c r="H47">
+        <v>5422.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>803.8</v>
+      </c>
+      <c r="K47">
+        <v>585.9</v>
+      </c>
+      <c r="L47">
+        <v>217.9</v>
+      </c>
+      <c r="M47">
+        <v>771.8872230000001</v>
+      </c>
+      <c r="N47">
+        <v>-553.9872230000001</v>
+      </c>
+      <c r="O47">
+        <v>-132.95693352</v>
+      </c>
+      <c r="P47">
+        <v>-421.0302894800001</v>
+      </c>
+      <c r="Q47">
+        <v>164.8697105199999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1130146373117688</v>
+      </c>
+      <c r="T47">
+        <v>1.513663372599501</v>
+      </c>
+      <c r="U47">
+        <v>0.1402</v>
+      </c>
+      <c r="V47">
+        <v>0.06775082996807162</v>
+      </c>
+      <c r="W47">
+        <v>0.1307013336384764</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.2822951248669652</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1222826506587872</v>
+      </c>
+      <c r="C48">
+        <v>1691.81098845482</v>
+      </c>
+      <c r="D48">
+        <v>6009.772988454821</v>
+      </c>
+      <c r="E48">
+        <v>-1184.138</v>
+      </c>
+      <c r="F48">
+        <v>5627.962</v>
+      </c>
+      <c r="G48">
+        <v>1310</v>
+      </c>
+      <c r="H48">
+        <v>5422.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>803.8</v>
+      </c>
+      <c r="K48">
+        <v>585.9</v>
+      </c>
+      <c r="L48">
+        <v>217.9</v>
+      </c>
+      <c r="M48">
+        <v>789.0402724</v>
+      </c>
+      <c r="N48">
+        <v>-571.1402724000001</v>
+      </c>
+      <c r="O48">
+        <v>-137.073665376</v>
+      </c>
+      <c r="P48">
+        <v>-434.0666070240001</v>
+      </c>
+      <c r="Q48">
+        <v>151.8333929759999</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1149352787434683</v>
+      </c>
+      <c r="T48">
+        <v>1.541694175795788</v>
+      </c>
+      <c r="U48">
+        <v>0.1402</v>
+      </c>
+      <c r="V48">
+        <v>0.06627798583833094</v>
+      </c>
+      <c r="W48">
+        <v>0.130907826385466</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.276158274326379</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1235916506587872</v>
+      </c>
+      <c r="C49">
+        <v>1500.633126387973</v>
+      </c>
+      <c r="D49">
+        <v>5940.942126387974</v>
+      </c>
+      <c r="E49">
+        <v>-1061.790999999999</v>
+      </c>
+      <c r="F49">
+        <v>5750.309000000001</v>
+      </c>
+      <c r="G49">
+        <v>1310</v>
+      </c>
+      <c r="H49">
+        <v>5422.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>803.8</v>
+      </c>
+      <c r="K49">
+        <v>585.9</v>
+      </c>
+      <c r="L49">
+        <v>217.9</v>
+      </c>
+      <c r="M49">
+        <v>806.1933218000001</v>
+      </c>
+      <c r="N49">
+        <v>-588.2933218000002</v>
+      </c>
+      <c r="O49">
+        <v>-141.190397232</v>
+      </c>
+      <c r="P49">
+        <v>-447.1029245680002</v>
+      </c>
+      <c r="Q49">
+        <v>138.7970754319998</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1169283972103262</v>
+      </c>
+      <c r="T49">
+        <v>1.570782745150426</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.06486781592687708</v>
+      </c>
+      <c r="W49">
+        <v>0.1311055322070518</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.2702825663619879</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1249006506587872</v>
+      </c>
+      <c r="C50">
+        <v>1311.014072129423</v>
+      </c>
+      <c r="D50">
+        <v>5873.670072129423</v>
+      </c>
+      <c r="E50">
+        <v>-939.4440000000004</v>
+      </c>
+      <c r="F50">
+        <v>5872.656</v>
+      </c>
+      <c r="G50">
+        <v>1310</v>
+      </c>
+      <c r="H50">
+        <v>5422.6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>803.8</v>
+      </c>
+      <c r="K50">
+        <v>585.9</v>
+      </c>
+      <c r="L50">
+        <v>217.9</v>
+      </c>
+      <c r="M50">
+        <v>823.3463711999999</v>
+      </c>
+      <c r="N50">
+        <v>-605.4463711999999</v>
+      </c>
+      <c r="O50">
+        <v>-145.307129088</v>
+      </c>
+      <c r="P50">
+        <v>-460.1392421119999</v>
+      </c>
+      <c r="Q50">
+        <v>125.7607578880001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1189981740797555</v>
+      </c>
+      <c r="T50">
+        <v>1.600990105634088</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.06351640309506716</v>
+      </c>
+      <c r="W50">
+        <v>0.1312950002860716</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.2646516795627799</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1262096506587872</v>
+      </c>
+      <c r="C51">
+        <v>1122.901465260426</v>
+      </c>
+      <c r="D51">
+        <v>5807.904465260427</v>
+      </c>
+      <c r="E51">
+        <v>-817.0969999999998</v>
+      </c>
+      <c r="F51">
+        <v>5995.003000000001</v>
+      </c>
+      <c r="G51">
+        <v>1310</v>
+      </c>
+      <c r="H51">
+        <v>5422.6</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>803.8</v>
+      </c>
+      <c r="K51">
+        <v>585.9</v>
+      </c>
+      <c r="L51">
+        <v>217.9</v>
+      </c>
+      <c r="M51">
+        <v>840.4994206</v>
+      </c>
+      <c r="N51">
+        <v>-622.5994206</v>
+      </c>
+      <c r="O51">
+        <v>-149.423860944</v>
+      </c>
+      <c r="P51">
+        <v>-473.175559656</v>
+      </c>
+      <c r="Q51">
+        <v>112.724440344</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1211491186695546</v>
+      </c>
+      <c r="T51">
+        <v>1.632382068489658</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.06222014997067803</v>
+      </c>
+      <c r="W51">
+        <v>0.1314767349741109</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.2592506248778251</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1275186506587872</v>
+      </c>
+      <c r="C52">
+        <v>936.2452644476962</v>
+      </c>
+      <c r="D52">
+        <v>5743.595264447697</v>
+      </c>
+      <c r="E52">
+        <v>-694.75</v>
+      </c>
+      <c r="F52">
+        <v>6117.35</v>
+      </c>
+      <c r="G52">
+        <v>1310</v>
+      </c>
+      <c r="H52">
+        <v>5422.6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>803.8</v>
+      </c>
+      <c r="K52">
+        <v>585.9</v>
+      </c>
+      <c r="L52">
+        <v>217.9</v>
+      </c>
+      <c r="M52">
+        <v>857.65247</v>
+      </c>
+      <c r="N52">
+        <v>-639.75247</v>
+      </c>
+      <c r="O52">
+        <v>-153.5405928</v>
+      </c>
+      <c r="P52">
+        <v>-486.2118772</v>
+      </c>
+      <c r="Q52">
+        <v>99.68812279999997</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1233861010429457</v>
+      </c>
+      <c r="T52">
+        <v>1.665029709859452</v>
+      </c>
+      <c r="U52">
+        <v>0.1402</v>
+      </c>
+      <c r="V52">
+        <v>0.06097574697126448</v>
+      </c>
+      <c r="W52">
+        <v>0.1316512002746287</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.2540656123802686</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1288276506587872</v>
+      </c>
+      <c r="C53">
+        <v>750.9976204567565</v>
+      </c>
+      <c r="D53">
+        <v>5680.694620456757</v>
+      </c>
+      <c r="E53">
+        <v>-572.4030000000002</v>
+      </c>
+      <c r="F53">
+        <v>6239.697</v>
+      </c>
+      <c r="G53">
+        <v>1310</v>
+      </c>
+      <c r="H53">
+        <v>5422.6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>803.8</v>
+      </c>
+      <c r="K53">
+        <v>585.9</v>
+      </c>
+      <c r="L53">
+        <v>217.9</v>
+      </c>
+      <c r="M53">
+        <v>874.8055194</v>
+      </c>
+      <c r="N53">
+        <v>-656.9055194</v>
+      </c>
+      <c r="O53">
+        <v>-157.657324656</v>
+      </c>
+      <c r="P53">
+        <v>-499.248194744</v>
+      </c>
+      <c r="Q53">
+        <v>86.65180525599999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1257143888193324</v>
+      </c>
+      <c r="T53">
+        <v>1.699009908019849</v>
+      </c>
+      <c r="U53">
+        <v>0.1402</v>
+      </c>
+      <c r="V53">
+        <v>0.05978014408947498</v>
+      </c>
+      <c r="W53">
+        <v>0.1318188237986556</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.2490839337061457</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1301366506587872</v>
+      </c>
+      <c r="C54">
+        <v>567.1127574190314</v>
+      </c>
+      <c r="D54">
+        <v>5619.156757419032</v>
+      </c>
+      <c r="E54">
+        <v>-450.0559999999996</v>
+      </c>
+      <c r="F54">
+        <v>6362.044000000001</v>
+      </c>
+      <c r="G54">
+        <v>1310</v>
+      </c>
+      <c r="H54">
+        <v>5422.6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>803.8</v>
+      </c>
+      <c r="K54">
+        <v>585.9</v>
+      </c>
+      <c r="L54">
+        <v>217.9</v>
+      </c>
+      <c r="M54">
+        <v>891.9585688000001</v>
+      </c>
+      <c r="N54">
+        <v>-674.0585688000001</v>
+      </c>
+      <c r="O54">
+        <v>-161.774056512</v>
+      </c>
+      <c r="P54">
+        <v>-512.2845122880001</v>
+      </c>
+      <c r="Q54">
+        <v>73.61548771199989</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1281396885864018</v>
+      </c>
+      <c r="T54">
+        <v>1.734405947770262</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.05863052593390814</v>
+      </c>
+      <c r="W54">
+        <v>0.1319800002640661</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.2442938580579506</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1314456506587872</v>
+      </c>
+      <c r="C55">
+        <v>384.5468617335109</v>
+      </c>
+      <c r="D55">
+        <v>5558.937861733511</v>
+      </c>
+      <c r="E55">
+        <v>-327.7089999999998</v>
+      </c>
+      <c r="F55">
+        <v>6484.391000000001</v>
+      </c>
+      <c r="G55">
+        <v>1310</v>
+      </c>
+      <c r="H55">
+        <v>5422.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>803.8</v>
+      </c>
+      <c r="K55">
+        <v>585.9</v>
+      </c>
+      <c r="L55">
+        <v>217.9</v>
+      </c>
+      <c r="M55">
+        <v>909.1116182000001</v>
+      </c>
+      <c r="N55">
+        <v>-691.2116182000001</v>
+      </c>
+      <c r="O55">
+        <v>-165.890788368</v>
+      </c>
+      <c r="P55">
+        <v>-525.3208298320001</v>
+      </c>
+      <c r="Q55">
+        <v>60.57917016799991</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1306681925988784</v>
+      </c>
+      <c r="T55">
+        <v>1.77130820197814</v>
+      </c>
+      <c r="U55">
+        <v>0.1402</v>
+      </c>
+      <c r="V55">
+        <v>0.05752428959553252</v>
+      </c>
+      <c r="W55">
+        <v>0.1321350945987063</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.2396845399813855</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1327546506587872</v>
+      </c>
+      <c r="C56">
+        <v>203.2579780363048</v>
+      </c>
+      <c r="D56">
+        <v>5499.995978036306</v>
+      </c>
+      <c r="E56">
+        <v>-205.3619999999992</v>
+      </c>
+      <c r="F56">
+        <v>6606.738000000001</v>
+      </c>
+      <c r="G56">
+        <v>1310</v>
+      </c>
+      <c r="H56">
+        <v>5422.6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>803.8</v>
+      </c>
+      <c r="K56">
+        <v>585.9</v>
+      </c>
+      <c r="L56">
+        <v>217.9</v>
+      </c>
+      <c r="M56">
+        <v>926.2646676000002</v>
+      </c>
+      <c r="N56">
+        <v>-708.3646676000002</v>
+      </c>
+      <c r="O56">
+        <v>-170.007520224</v>
+      </c>
+      <c r="P56">
+        <v>-538.3571473760002</v>
+      </c>
+      <c r="Q56">
+        <v>47.54285262399981</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1333066315684193</v>
+      </c>
+      <c r="T56">
+        <v>1.809814902021143</v>
+      </c>
+      <c r="U56">
+        <v>0.1402</v>
+      </c>
+      <c r="V56">
+        <v>0.05645902497339302</v>
+      </c>
+      <c r="W56">
+        <v>0.1322844446987303</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.2352459373891376</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1340636506587872</v>
+      </c>
+      <c r="C57">
+        <v>23.20591171903925</v>
+      </c>
+      <c r="D57">
+        <v>5442.29091171904</v>
+      </c>
+      <c r="E57">
+        <v>-83.01499999999942</v>
+      </c>
+      <c r="F57">
+        <v>6729.085000000001</v>
+      </c>
+      <c r="G57">
+        <v>1310</v>
+      </c>
+      <c r="H57">
+        <v>5422.6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>803.8</v>
+      </c>
+      <c r="K57">
+        <v>585.9</v>
+      </c>
+      <c r="L57">
+        <v>217.9</v>
+      </c>
+      <c r="M57">
+        <v>943.417717</v>
+      </c>
+      <c r="N57">
+        <v>-725.5177170000001</v>
+      </c>
+      <c r="O57">
+        <v>-174.12425208</v>
+      </c>
+      <c r="P57">
+        <v>-551.39346492</v>
+      </c>
+      <c r="Q57">
+        <v>34.50653507999994</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1360623344921619</v>
+      </c>
+      <c r="T57">
+        <v>1.850033010954947</v>
+      </c>
+      <c r="U57">
+        <v>0.1402</v>
+      </c>
+      <c r="V57">
+        <v>0.05543249724660406</v>
+      </c>
+      <c r="W57">
+        <v>0.1324283638860261</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.230968738527517</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1353726506587872</v>
+      </c>
+      <c r="C58">
+        <v>-155.6478624799192</v>
+      </c>
+      <c r="D58">
+        <v>5385.784137520081</v>
+      </c>
+      <c r="E58">
+        <v>39.33200000000033</v>
+      </c>
+      <c r="F58">
+        <v>6851.432000000001</v>
+      </c>
+      <c r="G58">
+        <v>1310</v>
+      </c>
+      <c r="H58">
+        <v>5422.6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>803.8</v>
+      </c>
+      <c r="K58">
+        <v>585.9</v>
+      </c>
+      <c r="L58">
+        <v>217.9</v>
+      </c>
+      <c r="M58">
+        <v>960.5707664</v>
+      </c>
+      <c r="N58">
+        <v>-742.6707664</v>
+      </c>
+      <c r="O58">
+        <v>-178.240983936</v>
+      </c>
+      <c r="P58">
+        <v>-564.429782464</v>
+      </c>
+      <c r="Q58">
+        <v>21.47021753599995</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1389432966397111</v>
+      </c>
+      <c r="T58">
+        <v>1.892079215749377</v>
+      </c>
+      <c r="U58">
+        <v>0.1402</v>
+      </c>
+      <c r="V58">
+        <v>0.05444263122434328</v>
+      </c>
+      <c r="W58">
+        <v>0.1325671431023471</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.226844296768097</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1366816506587872</v>
+      </c>
+      <c r="C59">
+        <v>-333.3402862482008</v>
+      </c>
+      <c r="D59">
+        <v>5330.438713751801</v>
+      </c>
+      <c r="E59">
+        <v>161.679000000001</v>
+      </c>
+      <c r="F59">
+        <v>6973.779000000001</v>
+      </c>
+      <c r="G59">
+        <v>1310</v>
+      </c>
+      <c r="H59">
+        <v>5422.6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>803.8</v>
+      </c>
+      <c r="K59">
+        <v>585.9</v>
+      </c>
+      <c r="L59">
+        <v>217.9</v>
+      </c>
+      <c r="M59">
+        <v>977.7238158000001</v>
+      </c>
+      <c r="N59">
+        <v>-759.8238158000001</v>
+      </c>
+      <c r="O59">
+        <v>-182.357715792</v>
+      </c>
+      <c r="P59">
+        <v>-577.4661000080001</v>
+      </c>
+      <c r="Q59">
+        <v>8.433899991999851</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1419582570266811</v>
+      </c>
+      <c r="T59">
+        <v>1.936081057976107</v>
+      </c>
+      <c r="U59">
+        <v>0.1402</v>
+      </c>
+      <c r="V59">
+        <v>0.05348749734321444</v>
+      </c>
+      <c r="W59">
+        <v>0.1327010528724813</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.2228645722633935</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1379906506587872</v>
+      </c>
+      <c r="C60">
+        <v>-509.906798237469</v>
+      </c>
+      <c r="D60">
+        <v>5276.219201762531</v>
+      </c>
+      <c r="E60">
+        <v>284.0259999999998</v>
+      </c>
+      <c r="F60">
+        <v>7096.126</v>
+      </c>
+      <c r="G60">
+        <v>1310</v>
+      </c>
+      <c r="H60">
+        <v>5422.6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>803.8</v>
+      </c>
+      <c r="K60">
+        <v>585.9</v>
+      </c>
+      <c r="L60">
+        <v>217.9</v>
+      </c>
+      <c r="M60">
+        <v>994.8768652</v>
+      </c>
+      <c r="N60">
+        <v>-776.9768652</v>
+      </c>
+      <c r="O60">
+        <v>-186.474447648</v>
+      </c>
+      <c r="P60">
+        <v>-590.502417552</v>
+      </c>
+      <c r="Q60">
+        <v>-4.60241755200002</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1451167869558878</v>
+      </c>
+      <c r="T60">
+        <v>1.982178226023157</v>
+      </c>
+      <c r="U60">
+        <v>0.1402</v>
+      </c>
+      <c r="V60">
+        <v>0.05256529911315903</v>
+      </c>
+      <c r="W60">
+        <v>0.1328303450643351</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.2190220796381627</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1392996506587872</v>
+      </c>
+      <c r="C61">
+        <v>-685.3814097357108</v>
+      </c>
+      <c r="D61">
+        <v>5223.091590264289</v>
+      </c>
+      <c r="E61">
+        <v>406.3729999999996</v>
+      </c>
+      <c r="F61">
+        <v>7218.473</v>
+      </c>
+      <c r="G61">
+        <v>1310</v>
+      </c>
+      <c r="H61">
+        <v>5422.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>803.8</v>
+      </c>
+      <c r="K61">
+        <v>585.9</v>
+      </c>
+      <c r="L61">
+        <v>217.9</v>
+      </c>
+      <c r="M61">
+        <v>1012.0299146</v>
+      </c>
+      <c r="N61">
+        <v>-794.1299146</v>
+      </c>
+      <c r="O61">
+        <v>-190.591179504</v>
+      </c>
+      <c r="P61">
+        <v>-603.538735096</v>
+      </c>
+      <c r="Q61">
+        <v>-17.638735096</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1484293915157874</v>
+      </c>
+      <c r="T61">
+        <v>2.030524036413965</v>
+      </c>
+      <c r="U61">
+        <v>0.1402</v>
+      </c>
+      <c r="V61">
+        <v>0.05167436184005463</v>
+      </c>
+      <c r="W61">
+        <v>0.1329552544700243</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.2153098410002277</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1406086506587872</v>
+      </c>
+      <c r="C62">
+        <v>-859.7967758133009</v>
+      </c>
+      <c r="D62">
+        <v>5171.0232241867</v>
+      </c>
+      <c r="E62">
+        <v>528.7200000000003</v>
+      </c>
+      <c r="F62">
+        <v>7340.820000000001</v>
+      </c>
+      <c r="G62">
+        <v>1310</v>
+      </c>
+      <c r="H62">
+        <v>5422.6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>803.8</v>
+      </c>
+      <c r="K62">
+        <v>585.9</v>
+      </c>
+      <c r="L62">
+        <v>217.9</v>
+      </c>
+      <c r="M62">
+        <v>1029.182964</v>
+      </c>
+      <c r="N62">
+        <v>-811.2829640000001</v>
+      </c>
+      <c r="O62">
+        <v>-194.70791136</v>
+      </c>
+      <c r="P62">
+        <v>-616.5750526400001</v>
+      </c>
+      <c r="Q62">
+        <v>-30.6750526400001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1519076263036822</v>
+      </c>
+      <c r="T62">
+        <v>2.081287137324314</v>
+      </c>
+      <c r="U62">
+        <v>0.1402</v>
+      </c>
+      <c r="V62">
+        <v>0.05081312247605372</v>
+      </c>
+      <c r="W62">
+        <v>0.1330760002288573</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2117213436502239</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1419176506587872</v>
+      </c>
+      <c r="C63">
+        <v>-1033.184262255606</v>
+      </c>
+      <c r="D63">
+        <v>5119.982737744394</v>
+      </c>
+      <c r="E63">
+        <v>651.067</v>
+      </c>
+      <c r="F63">
+        <v>7463.167</v>
+      </c>
+      <c r="G63">
+        <v>1310</v>
+      </c>
+      <c r="H63">
+        <v>5422.6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>803.8</v>
+      </c>
+      <c r="K63">
+        <v>585.9</v>
+      </c>
+      <c r="L63">
+        <v>217.9</v>
+      </c>
+      <c r="M63">
+        <v>1046.3360134</v>
+      </c>
+      <c r="N63">
+        <v>-828.4360134</v>
+      </c>
+      <c r="O63">
+        <v>-198.824643216</v>
+      </c>
+      <c r="P63">
+        <v>-629.611370184</v>
+      </c>
+      <c r="Q63">
+        <v>-43.71137018399997</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1555642321063407</v>
+      </c>
+      <c r="T63">
+        <v>2.134653474178784</v>
+      </c>
+      <c r="U63">
+        <v>0.1402</v>
+      </c>
+      <c r="V63">
+        <v>0.04998012046824957</v>
+      </c>
+      <c r="W63">
+        <v>0.1331927871103514</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2082505019510399</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1432266506587872</v>
+      </c>
+      <c r="C64">
+        <v>-1205.574008570397</v>
+      </c>
+      <c r="D64">
+        <v>5069.939991429603</v>
+      </c>
+      <c r="E64">
+        <v>773.4139999999998</v>
+      </c>
+      <c r="F64">
+        <v>7585.514</v>
+      </c>
+      <c r="G64">
+        <v>1310</v>
+      </c>
+      <c r="H64">
+        <v>5422.6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>803.8</v>
+      </c>
+      <c r="K64">
+        <v>585.9</v>
+      </c>
+      <c r="L64">
+        <v>217.9</v>
+      </c>
+      <c r="M64">
+        <v>1063.4890628</v>
+      </c>
+      <c r="N64">
+        <v>-845.5890628000001</v>
+      </c>
+      <c r="O64">
+        <v>-202.941375072</v>
+      </c>
+      <c r="P64">
+        <v>-642.6476877280001</v>
+      </c>
+      <c r="Q64">
+        <v>-56.74768772800007</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1594132908459812</v>
+      </c>
+      <c r="T64">
+        <v>2.190828565604541</v>
+      </c>
+      <c r="U64">
+        <v>0.1402</v>
+      </c>
+      <c r="V64">
+        <v>0.04917398949295522</v>
+      </c>
+      <c r="W64">
+        <v>0.1333058066730877</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2048916228873134</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1445356506587872</v>
+      </c>
+      <c r="C65">
+        <v>-1376.994987335997</v>
+      </c>
+      <c r="D65">
+        <v>5020.866012664003</v>
+      </c>
+      <c r="E65">
+        <v>895.7610000000004</v>
+      </c>
+      <c r="F65">
+        <v>7707.861000000001</v>
+      </c>
+      <c r="G65">
+        <v>1310</v>
+      </c>
+      <c r="H65">
+        <v>5422.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>803.8</v>
+      </c>
+      <c r="K65">
+        <v>585.9</v>
+      </c>
+      <c r="L65">
+        <v>217.9</v>
+      </c>
+      <c r="M65">
+        <v>1080.6421122</v>
+      </c>
+      <c r="N65">
+        <v>-862.7421122000002</v>
+      </c>
+      <c r="O65">
+        <v>-207.058106928</v>
+      </c>
+      <c r="P65">
+        <v>-655.6840052720001</v>
+      </c>
+      <c r="Q65">
+        <v>-69.78400527200017</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1634704068147915</v>
+      </c>
+      <c r="T65">
+        <v>2.250040148458718</v>
+      </c>
+      <c r="U65">
+        <v>0.1402</v>
+      </c>
+      <c r="V65">
+        <v>0.04839344997719402</v>
+      </c>
+      <c r="W65">
+        <v>0.1334152383131974</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2016393749049751</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1741094234900002</v>
+      </c>
+      <c r="C66">
+        <v>-2400.297452928611</v>
+      </c>
+      <c r="D66">
+        <v>4119.910547071389</v>
+      </c>
+      <c r="E66">
+        <v>1018.108</v>
+      </c>
+      <c r="F66">
+        <v>7830.208000000001</v>
+      </c>
+      <c r="G66">
+        <v>1310</v>
+      </c>
+      <c r="H66">
+        <v>5422.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>803.8</v>
+      </c>
+      <c r="K66">
+        <v>585.9</v>
+      </c>
+      <c r="L66">
+        <v>217.9</v>
+      </c>
+      <c r="M66">
+        <v>1438.4092096</v>
+      </c>
+      <c r="N66">
+        <v>-1220.5092096</v>
+      </c>
+      <c r="O66">
+        <v>-292.9222103040001</v>
+      </c>
+      <c r="P66">
+        <v>-927.5869992960002</v>
+      </c>
+      <c r="Q66">
+        <v>-341.6869992960002</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1689328426463494</v>
+      </c>
+      <c r="T66">
+        <v>2.329761673382433</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.03635683062300659</v>
+      </c>
+      <c r="W66">
+        <v>0.1770212502145537</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1514867942625274</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1758534234900002</v>
+      </c>
+      <c r="C67">
+        <v>-2565.784508794972</v>
+      </c>
+      <c r="D67">
+        <v>4076.770491205028</v>
+      </c>
+      <c r="E67">
+        <v>1140.455</v>
+      </c>
+      <c r="F67">
+        <v>7952.555</v>
+      </c>
+      <c r="G67">
+        <v>1310</v>
+      </c>
+      <c r="H67">
+        <v>5422.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>803.8</v>
+      </c>
+      <c r="K67">
+        <v>585.9</v>
+      </c>
+      <c r="L67">
+        <v>217.9</v>
+      </c>
+      <c r="M67">
+        <v>1460.8843535</v>
+      </c>
+      <c r="N67">
+        <v>-1242.9843535</v>
+      </c>
+      <c r="O67">
+        <v>-298.31624484</v>
+      </c>
+      <c r="P67">
+        <v>-944.66810866</v>
+      </c>
+      <c r="Q67">
+        <v>-358.7681086600001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1734937810076737</v>
+      </c>
+      <c r="T67">
+        <v>2.396326292621932</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.03579749476726803</v>
+      </c>
+      <c r="W67">
+        <v>0.1771240002112529</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1491562281969502</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1775974234900001</v>
+      </c>
+      <c r="C68">
+        <v>-2730.377477801646</v>
+      </c>
+      <c r="D68">
+        <v>4034.524522198355</v>
+      </c>
+      <c r="E68">
+        <v>1262.802000000001</v>
+      </c>
+      <c r="F68">
+        <v>8074.902000000001</v>
+      </c>
+      <c r="G68">
+        <v>1310</v>
+      </c>
+      <c r="H68">
+        <v>5422.6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>803.8</v>
+      </c>
+      <c r="K68">
+        <v>585.9</v>
+      </c>
+      <c r="L68">
+        <v>217.9</v>
+      </c>
+      <c r="M68">
+        <v>1483.3594974</v>
+      </c>
+      <c r="N68">
+        <v>-1265.4594974</v>
+      </c>
+      <c r="O68">
+        <v>-303.710279376</v>
+      </c>
+      <c r="P68">
+        <v>-961.7492180240001</v>
+      </c>
+      <c r="Q68">
+        <v>-375.8492180240002</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1783230098608405</v>
+      </c>
+      <c r="T68">
+        <v>2.466806477699047</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.03525510848291549</v>
+      </c>
+      <c r="W68">
+        <v>0.1772236365716884</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1468962853454813</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1793414234900002</v>
+      </c>
+      <c r="C69">
+        <v>-2894.103870083245</v>
+      </c>
+      <c r="D69">
+        <v>3993.145129916757</v>
+      </c>
+      <c r="E69">
+        <v>1385.149000000001</v>
+      </c>
+      <c r="F69">
+        <v>8197.249000000002</v>
+      </c>
+      <c r="G69">
+        <v>1310</v>
+      </c>
+      <c r="H69">
+        <v>5422.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>803.8</v>
+      </c>
+      <c r="K69">
+        <v>585.9</v>
+      </c>
+      <c r="L69">
+        <v>217.9</v>
+      </c>
+      <c r="M69">
+        <v>1505.8346413</v>
+      </c>
+      <c r="N69">
+        <v>-1287.9346413</v>
+      </c>
+      <c r="O69">
+        <v>-309.1043139120001</v>
+      </c>
+      <c r="P69">
+        <v>-978.8303273880002</v>
+      </c>
+      <c r="Q69">
+        <v>-392.9303273880003</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.183444919250563</v>
+      </c>
+      <c r="T69">
+        <v>2.541558189144473</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.03472891283391674</v>
+      </c>
+      <c r="W69">
+        <v>0.1773202987124095</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1447038034746532</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1810854234900001</v>
+      </c>
+      <c r="C70">
+        <v>-3056.990078620807</v>
+      </c>
+      <c r="D70">
+        <v>3952.605921379194</v>
+      </c>
+      <c r="E70">
+        <v>1507.496000000001</v>
+      </c>
+      <c r="F70">
+        <v>8319.596000000001</v>
+      </c>
+      <c r="G70">
+        <v>1310</v>
+      </c>
+      <c r="H70">
+        <v>5422.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>803.8</v>
+      </c>
+      <c r="K70">
+        <v>585.9</v>
+      </c>
+      <c r="L70">
+        <v>217.9</v>
+      </c>
+      <c r="M70">
+        <v>1528.3097852</v>
+      </c>
+      <c r="N70">
+        <v>-1310.4097852</v>
+      </c>
+      <c r="O70">
+        <v>-314.4983484480001</v>
+      </c>
+      <c r="P70">
+        <v>-995.9114367520003</v>
+      </c>
+      <c r="Q70">
+        <v>-410.0114367520003</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1888869479771431</v>
+      </c>
+      <c r="T70">
+        <v>2.620981882555238</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.03421819352753561</v>
+      </c>
+      <c r="W70">
+        <v>0.1774141178489917</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1425758063647317</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1828294234900001</v>
+      </c>
+      <c r="C71">
+        <v>-3219.061435379721</v>
+      </c>
+      <c r="D71">
+        <v>3912.88156462028</v>
+      </c>
+      <c r="E71">
+        <v>1629.843000000001</v>
+      </c>
+      <c r="F71">
+        <v>8441.943000000001</v>
+      </c>
+      <c r="G71">
+        <v>1310</v>
+      </c>
+      <c r="H71">
+        <v>5422.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>803.8</v>
+      </c>
+      <c r="K71">
+        <v>585.9</v>
+      </c>
+      <c r="L71">
+        <v>217.9</v>
+      </c>
+      <c r="M71">
+        <v>1550.7849291</v>
+      </c>
+      <c r="N71">
+        <v>-1332.8849291</v>
+      </c>
+      <c r="O71">
+        <v>-319.892382984</v>
+      </c>
+      <c r="P71">
+        <v>-1012.992546116</v>
+      </c>
+      <c r="Q71">
+        <v>-427.0925461160001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1946800753312445</v>
+      </c>
+      <c r="T71">
+        <v>2.70552968521831</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.03372227767931046</v>
+      </c>
+      <c r="W71">
+        <v>0.1775052175903107</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1405094903304603</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1845734234900002</v>
+      </c>
+      <c r="C72">
+        <v>-3380.342264096127</v>
+      </c>
+      <c r="D72">
+        <v>3873.947735903874</v>
+      </c>
+      <c r="E72">
+        <v>1752.190000000001</v>
+      </c>
+      <c r="F72">
+        <v>8564.290000000001</v>
+      </c>
+      <c r="G72">
+        <v>1310</v>
+      </c>
+      <c r="H72">
+        <v>5422.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>803.8</v>
+      </c>
+      <c r="K72">
+        <v>585.9</v>
+      </c>
+      <c r="L72">
+        <v>217.9</v>
+      </c>
+      <c r="M72">
+        <v>1573.260073</v>
+      </c>
+      <c r="N72">
+        <v>-1355.360073</v>
+      </c>
+      <c r="O72">
+        <v>-325.28641752</v>
+      </c>
+      <c r="P72">
+        <v>-1030.07365548</v>
+      </c>
+      <c r="Q72">
+        <v>-444.1736554800003</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2008594111756193</v>
+      </c>
+      <c r="T72">
+        <v>2.79571400805892</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.03324053085532031</v>
+      </c>
+      <c r="W72">
+        <v>0.1775937144818777</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1385022118971679</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1863174234900001</v>
+      </c>
+      <c r="C73">
+        <v>-3540.855929942994</v>
+      </c>
+      <c r="D73">
+        <v>3835.781070057006</v>
+      </c>
+      <c r="E73">
+        <v>1874.537</v>
+      </c>
+      <c r="F73">
+        <v>8686.637000000001</v>
+      </c>
+      <c r="G73">
+        <v>1310</v>
+      </c>
+      <c r="H73">
+        <v>5422.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>803.8</v>
+      </c>
+      <c r="K73">
+        <v>585.9</v>
+      </c>
+      <c r="L73">
+        <v>217.9</v>
+      </c>
+      <c r="M73">
+        <v>1595.7352169</v>
+      </c>
+      <c r="N73">
+        <v>-1377.8352169</v>
+      </c>
+      <c r="O73">
+        <v>-330.680452056</v>
+      </c>
+      <c r="P73">
+        <v>-1047.154764844</v>
+      </c>
+      <c r="Q73">
+        <v>-461.2547648440001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2074649081127096</v>
+      </c>
+      <c r="T73">
+        <v>2.892117939371297</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.03277235436440031</v>
+      </c>
+      <c r="W73">
+        <v>0.1776797185032597</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1365514765183347</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1880614234900002</v>
+      </c>
+      <c r="C74">
+        <v>-3700.624886288927</v>
+      </c>
+      <c r="D74">
+        <v>3798.359113711073</v>
+      </c>
+      <c r="E74">
+        <v>1996.884</v>
+      </c>
+      <c r="F74">
+        <v>8808.984</v>
+      </c>
+      <c r="G74">
+        <v>1310</v>
+      </c>
+      <c r="H74">
+        <v>5422.6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>803.8</v>
+      </c>
+      <c r="K74">
+        <v>585.9</v>
+      </c>
+      <c r="L74">
+        <v>217.9</v>
+      </c>
+      <c r="M74">
+        <v>1618.2103608</v>
+      </c>
+      <c r="N74">
+        <v>-1400.3103608</v>
+      </c>
+      <c r="O74">
+        <v>-336.074486592</v>
+      </c>
+      <c r="P74">
+        <v>-1064.235874208</v>
+      </c>
+      <c r="Q74">
+        <v>-478.3358742080001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2145422262595921</v>
+      </c>
+      <c r="T74">
+        <v>2.995407865777414</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.03231718277600586</v>
+      </c>
+      <c r="W74">
+        <v>0.1777633335240477</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1346549282333577</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1898054234900002</v>
+      </c>
+      <c r="C75">
+        <v>-3859.670718746329</v>
+      </c>
+      <c r="D75">
+        <v>3761.660281253671</v>
+      </c>
+      <c r="E75">
+        <v>2119.231</v>
+      </c>
+      <c r="F75">
+        <v>8931.331</v>
+      </c>
+      <c r="G75">
+        <v>1310</v>
+      </c>
+      <c r="H75">
+        <v>5422.6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>803.8</v>
+      </c>
+      <c r="K75">
+        <v>585.9</v>
+      </c>
+      <c r="L75">
+        <v>217.9</v>
+      </c>
+      <c r="M75">
+        <v>1640.6855047</v>
+      </c>
+      <c r="N75">
+        <v>-1422.7855047</v>
+      </c>
+      <c r="O75">
+        <v>-341.4685211280001</v>
+      </c>
+      <c r="P75">
+        <v>-1081.316983572</v>
+      </c>
+      <c r="Q75">
+        <v>-495.4169835720003</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2221437901951325</v>
+      </c>
+      <c r="T75">
+        <v>3.106348897843244</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.03187448164208797</v>
+      </c>
+      <c r="W75">
+        <v>0.1778446577223484</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1328103401753665</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1915494234900001</v>
+      </c>
+      <c r="C76">
+        <v>-4018.014186690527</v>
+      </c>
+      <c r="D76">
+        <v>3725.663813309473</v>
+      </c>
+      <c r="E76">
+        <v>2241.578</v>
+      </c>
+      <c r="F76">
+        <v>9053.678</v>
+      </c>
+      <c r="G76">
+        <v>1310</v>
+      </c>
+      <c r="H76">
+        <v>5422.6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>803.8</v>
+      </c>
+      <c r="K76">
+        <v>585.9</v>
+      </c>
+      <c r="L76">
+        <v>217.9</v>
+      </c>
+      <c r="M76">
+        <v>1663.1606486</v>
+      </c>
+      <c r="N76">
+        <v>-1445.2606486</v>
+      </c>
+      <c r="O76">
+        <v>-346.862555664</v>
+      </c>
+      <c r="P76">
+        <v>-1098.398092936</v>
+      </c>
+      <c r="Q76">
+        <v>-512.498092936</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2303300898180222</v>
+      </c>
+      <c r="T76">
+        <v>3.2258238554526</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.03144374540368138</v>
+      </c>
+      <c r="W76">
+        <v>0.1779237839693437</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1310156058486724</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1932934234900001</v>
+      </c>
+      <c r="C77">
+        <v>-4175.675262417613</v>
+      </c>
+      <c r="D77">
+        <v>3690.349737582388</v>
+      </c>
+      <c r="E77">
+        <v>2363.925000000001</v>
+      </c>
+      <c r="F77">
+        <v>9176.025000000001</v>
+      </c>
+      <c r="G77">
+        <v>1310</v>
+      </c>
+      <c r="H77">
+        <v>5422.6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>803.8</v>
+      </c>
+      <c r="K77">
+        <v>585.9</v>
+      </c>
+      <c r="L77">
+        <v>217.9</v>
+      </c>
+      <c r="M77">
+        <v>1685.6357925</v>
+      </c>
+      <c r="N77">
+        <v>-1467.7357925</v>
+      </c>
+      <c r="O77">
+        <v>-352.2565902</v>
+      </c>
+      <c r="P77">
+        <v>-1115.4792023</v>
+      </c>
+      <c r="Q77">
+        <v>-529.5792023</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2391712934107431</v>
+      </c>
+      <c r="T77">
+        <v>3.354856809670704</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.03102449546496562</v>
+      </c>
+      <c r="W77">
+        <v>0.1780008001830858</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1292687311040235</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1950374234900001</v>
+      </c>
+      <c r="C78">
+        <v>-4332.673168096244</v>
+      </c>
+      <c r="D78">
+        <v>3655.698831903757</v>
+      </c>
+      <c r="E78">
+        <v>2486.272000000001</v>
+      </c>
+      <c r="F78">
+        <v>9298.372000000001</v>
+      </c>
+      <c r="G78">
+        <v>1310</v>
+      </c>
+      <c r="H78">
+        <v>5422.6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>803.8</v>
+      </c>
+      <c r="K78">
+        <v>585.9</v>
+      </c>
+      <c r="L78">
+        <v>217.9</v>
+      </c>
+      <c r="M78">
+        <v>1708.1109364</v>
+      </c>
+      <c r="N78">
+        <v>-1490.2109364</v>
+      </c>
+      <c r="O78">
+        <v>-357.6506247360001</v>
+      </c>
+      <c r="P78">
+        <v>-1132.560311664</v>
+      </c>
+      <c r="Q78">
+        <v>-546.6603116640002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2487492639695241</v>
+      </c>
+      <c r="T78">
+        <v>3.49464251007365</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.03061627841937397</v>
+      </c>
+      <c r="W78">
+        <v>0.178075789654361</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.1275678267473916</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1967814234900002</v>
+      </c>
+      <c r="C79">
+        <v>-4489.026410657019</v>
+      </c>
+      <c r="D79">
+        <v>3621.692589342982</v>
+      </c>
+      <c r="E79">
+        <v>2608.619000000001</v>
+      </c>
+      <c r="F79">
+        <v>9420.719000000001</v>
+      </c>
+      <c r="G79">
+        <v>1310</v>
+      </c>
+      <c r="H79">
+        <v>5422.6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>803.8</v>
+      </c>
+      <c r="K79">
+        <v>585.9</v>
+      </c>
+      <c r="L79">
+        <v>217.9</v>
+      </c>
+      <c r="M79">
+        <v>1730.5860803</v>
+      </c>
+      <c r="N79">
+        <v>-1512.6860803</v>
+      </c>
+      <c r="O79">
+        <v>-363.0446592720001</v>
+      </c>
+      <c r="P79">
+        <v>-1149.641421028</v>
+      </c>
+      <c r="Q79">
+        <v>-563.7414210280004</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2591601015334164</v>
+      </c>
+      <c r="T79">
+        <v>3.646583488772504</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.03021866441392756</v>
+      </c>
+      <c r="W79">
+        <v>0.1781488313471615</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.1259111017246981</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1985254234900001</v>
+      </c>
+      <c r="C80">
+        <v>-4644.752814752514</v>
+      </c>
+      <c r="D80">
+        <v>3588.313185247487</v>
+      </c>
+      <c r="E80">
+        <v>2730.966</v>
+      </c>
+      <c r="F80">
+        <v>9543.066000000001</v>
+      </c>
+      <c r="G80">
+        <v>1310</v>
+      </c>
+      <c r="H80">
+        <v>5422.6</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>803.8</v>
+      </c>
+      <c r="K80">
+        <v>585.9</v>
+      </c>
+      <c r="L80">
+        <v>217.9</v>
+      </c>
+      <c r="M80">
+        <v>1753.0612242</v>
+      </c>
+      <c r="N80">
+        <v>-1535.1612242</v>
+      </c>
+      <c r="O80">
+        <v>-368.438693808</v>
+      </c>
+      <c r="P80">
+        <v>-1166.722530392</v>
+      </c>
+      <c r="Q80">
+        <v>-580.822530392</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2705173788758445</v>
+      </c>
+      <c r="T80">
+        <v>3.81233728371671</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02983124563939002</v>
+      </c>
+      <c r="W80">
+        <v>0.1782200001760441</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.1242968568307918</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2002694234900002</v>
+      </c>
+      <c r="C81">
+        <v>-4799.869553911303</v>
+      </c>
+      <c r="D81">
+        <v>3555.543446088697</v>
+      </c>
+      <c r="E81">
+        <v>2853.313</v>
+      </c>
+      <c r="F81">
+        <v>9665.413</v>
+      </c>
+      <c r="G81">
+        <v>1310</v>
+      </c>
+      <c r="H81">
+        <v>5422.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>803.8</v>
+      </c>
+      <c r="K81">
+        <v>585.9</v>
+      </c>
+      <c r="L81">
+        <v>217.9</v>
+      </c>
+      <c r="M81">
+        <v>1775.5363681</v>
+      </c>
+      <c r="N81">
+        <v>-1557.6363681</v>
+      </c>
+      <c r="O81">
+        <v>-373.832728344</v>
+      </c>
+      <c r="P81">
+        <v>-1183.803639756</v>
+      </c>
+      <c r="Q81">
+        <v>-597.9036397560002</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2829563016794561</v>
+      </c>
+      <c r="T81">
+        <v>3.993877154369887</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02945363493509395</v>
+      </c>
+      <c r="W81">
+        <v>0.1782893672624233</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.1227234788962247</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2020134234900001</v>
+      </c>
+      <c r="C82">
+        <v>-4954.393180000353</v>
+      </c>
+      <c r="D82">
+        <v>3523.366819999647</v>
+      </c>
+      <c r="E82">
+        <v>2975.66</v>
+      </c>
+      <c r="F82">
+        <v>9787.76</v>
+      </c>
+      <c r="G82">
+        <v>1310</v>
+      </c>
+      <c r="H82">
+        <v>5422.6</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>803.8</v>
+      </c>
+      <c r="K82">
+        <v>585.9</v>
+      </c>
+      <c r="L82">
+        <v>217.9</v>
+      </c>
+      <c r="M82">
+        <v>1798.011512</v>
+      </c>
+      <c r="N82">
+        <v>-1580.111512</v>
+      </c>
+      <c r="O82">
+        <v>-379.22676288</v>
+      </c>
+      <c r="P82">
+        <v>-1200.88474912</v>
+      </c>
+      <c r="Q82">
+        <v>-614.9847491199999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2966391167634289</v>
+      </c>
+      <c r="T82">
+        <v>4.19357101208838</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02908546449840528</v>
+      </c>
+      <c r="W82">
+        <v>0.1783570001716429</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.121189435410022</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2037574234900001</v>
+      </c>
+      <c r="C83">
+        <v>-5108.339651102036</v>
+      </c>
+      <c r="D83">
+        <v>3491.767348897966</v>
+      </c>
+      <c r="E83">
+        <v>3098.007000000001</v>
+      </c>
+      <c r="F83">
+        <v>9910.107000000002</v>
+      </c>
+      <c r="G83">
+        <v>1310</v>
+      </c>
+      <c r="H83">
+        <v>5422.6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>803.8</v>
+      </c>
+      <c r="K83">
+        <v>585.9</v>
+      </c>
+      <c r="L83">
+        <v>217.9</v>
+      </c>
+      <c r="M83">
+        <v>1820.4866559</v>
+      </c>
+      <c r="N83">
+        <v>-1602.586655900001</v>
+      </c>
+      <c r="O83">
+        <v>-384.6207974160001</v>
+      </c>
+      <c r="P83">
+        <v>-1217.965858484</v>
+      </c>
+      <c r="Q83">
+        <v>-632.0658584840004</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3117622281720305</v>
+      </c>
+      <c r="T83">
+        <v>4.414285275882507</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02872638468978298</v>
+      </c>
+      <c r="W83">
+        <v>0.1784229631324869</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.1196932695407623</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2055014234900002</v>
+      </c>
+      <c r="C84">
+        <v>-5261.724357904343</v>
+      </c>
+      <c r="D84">
+        <v>3460.729642095658</v>
+      </c>
+      <c r="E84">
+        <v>3220.354000000001</v>
+      </c>
+      <c r="F84">
+        <v>10032.454</v>
+      </c>
+      <c r="G84">
+        <v>1310</v>
+      </c>
+      <c r="H84">
+        <v>5422.6</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>803.8</v>
+      </c>
+      <c r="K84">
+        <v>585.9</v>
+      </c>
+      <c r="L84">
+        <v>217.9</v>
+      </c>
+      <c r="M84">
+        <v>1842.9617998</v>
+      </c>
+      <c r="N84">
+        <v>-1625.0617998</v>
+      </c>
+      <c r="O84">
+        <v>-390.0148319520001</v>
+      </c>
+      <c r="P84">
+        <v>-1235.046967848</v>
+      </c>
+      <c r="Q84">
+        <v>-649.1469678480001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3285656852926989</v>
+      </c>
+      <c r="T84">
+        <v>4.659523346764868</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02837606292527343</v>
+      </c>
+      <c r="W84">
+        <v>0.1784873172406273</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.1182335955219728</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2072454234900001</v>
+      </c>
+      <c r="C85">
+        <v>-5414.562148696076</v>
+      </c>
+      <c r="D85">
+        <v>3430.238851303925</v>
+      </c>
+      <c r="E85">
+        <v>3342.701000000001</v>
+      </c>
+      <c r="F85">
+        <v>10154.801</v>
+      </c>
+      <c r="G85">
+        <v>1310</v>
+      </c>
+      <c r="H85">
+        <v>5422.6</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>803.8</v>
+      </c>
+      <c r="K85">
+        <v>585.9</v>
+      </c>
+      <c r="L85">
+        <v>217.9</v>
+      </c>
+      <c r="M85">
+        <v>1865.4369437</v>
+      </c>
+      <c r="N85">
+        <v>-1647.5369437</v>
+      </c>
+      <c r="O85">
+        <v>-395.4088664880001</v>
+      </c>
+      <c r="P85">
+        <v>-1252.128077212</v>
+      </c>
+      <c r="Q85">
+        <v>-666.2280772120004</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3473460197216811</v>
+      </c>
+      <c r="T85">
+        <v>4.933612955398096</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02803418264906532</v>
+      </c>
+      <c r="W85">
+        <v>0.1785501206473667</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.1168090943711054</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2089894234900001</v>
+      </c>
+      <c r="C86">
+        <v>-5566.867353052219</v>
+      </c>
+      <c r="D86">
+        <v>3400.280646947781</v>
+      </c>
+      <c r="E86">
+        <v>3465.048000000001</v>
+      </c>
+      <c r="F86">
+        <v>10277.148</v>
+      </c>
+      <c r="G86">
+        <v>1310</v>
+      </c>
+      <c r="H86">
+        <v>5422.6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>803.8</v>
+      </c>
+      <c r="K86">
+        <v>585.9</v>
+      </c>
+      <c r="L86">
+        <v>217.9</v>
+      </c>
+      <c r="M86">
+        <v>1887.9120876</v>
+      </c>
+      <c r="N86">
+        <v>-1670.0120876</v>
+      </c>
+      <c r="O86">
+        <v>-400.802901024</v>
+      </c>
+      <c r="P86">
+        <v>-1269.209186576</v>
+      </c>
+      <c r="Q86">
+        <v>-683.3091865760001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.368473895954286</v>
+      </c>
+      <c r="T86">
+        <v>5.241963765110474</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.02770044237943359</v>
+      </c>
+      <c r="W86">
+        <v>0.178611428734898</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.1154185099143067</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2107334234900001</v>
+      </c>
+      <c r="C87">
+        <v>-5718.653804288928</v>
+      </c>
+      <c r="D87">
+        <v>3370.841195711073</v>
+      </c>
+      <c r="E87">
+        <v>3587.395</v>
+      </c>
+      <c r="F87">
+        <v>10399.495</v>
+      </c>
+      <c r="G87">
+        <v>1310</v>
+      </c>
+      <c r="H87">
+        <v>5422.6</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>803.8</v>
+      </c>
+      <c r="K87">
+        <v>585.9</v>
+      </c>
+      <c r="L87">
+        <v>217.9</v>
+      </c>
+      <c r="M87">
+        <v>1910.3872315</v>
+      </c>
+      <c r="N87">
+        <v>-1692.4872315</v>
+      </c>
+      <c r="O87">
+        <v>-406.19693556</v>
+      </c>
+      <c r="P87">
+        <v>-1286.29029594</v>
+      </c>
+      <c r="Q87">
+        <v>-700.3902959400003</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3924188223512384</v>
+      </c>
+      <c r="T87">
+        <v>5.591428016117839</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0273745548220285</v>
+      </c>
+      <c r="W87">
+        <v>0.1786712942791933</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.1140606450917854</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2124774234900001</v>
+      </c>
+      <c r="C88">
+        <v>-5869.934860762036</v>
+      </c>
+      <c r="D88">
+        <v>3341.907139237965</v>
+      </c>
+      <c r="E88">
+        <v>3709.742</v>
+      </c>
+      <c r="F88">
+        <v>10521.842</v>
+      </c>
+      <c r="G88">
+        <v>1310</v>
+      </c>
+      <c r="H88">
+        <v>5422.6</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>803.8</v>
+      </c>
+      <c r="K88">
+        <v>585.9</v>
+      </c>
+      <c r="L88">
+        <v>217.9</v>
+      </c>
+      <c r="M88">
+        <v>1932.8623754</v>
+      </c>
+      <c r="N88">
+        <v>-1714.9623754</v>
+      </c>
+      <c r="O88">
+        <v>-411.590970096</v>
+      </c>
+      <c r="P88">
+        <v>-1303.371405304</v>
+      </c>
+      <c r="Q88">
+        <v>-717.4714053039999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4197844525191841</v>
+      </c>
+      <c r="T88">
+        <v>5.990815731554828</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.02705624604502816</v>
+      </c>
+      <c r="W88">
+        <v>0.1787297676015283</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.1127343585209507</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2142214234900001</v>
+      </c>
+      <c r="C89">
+        <v>-6020.723426077998</v>
+      </c>
+      <c r="D89">
+        <v>3313.465573922002</v>
+      </c>
+      <c r="E89">
+        <v>3832.089</v>
+      </c>
+      <c r="F89">
+        <v>10644.189</v>
+      </c>
+      <c r="G89">
+        <v>1310</v>
+      </c>
+      <c r="H89">
+        <v>5422.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>803.8</v>
+      </c>
+      <c r="K89">
+        <v>585.9</v>
+      </c>
+      <c r="L89">
+        <v>217.9</v>
+      </c>
+      <c r="M89">
+        <v>1955.3375193</v>
+      </c>
+      <c r="N89">
+        <v>-1737.4375193</v>
+      </c>
+      <c r="O89">
+        <v>-416.985004632</v>
+      </c>
+      <c r="P89">
+        <v>-1320.452514668</v>
+      </c>
+      <c r="Q89">
+        <v>-734.5525146680001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4513601796360444</v>
+      </c>
+      <c r="T89">
+        <v>6.451647710905199</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.02674525471117727</v>
+      </c>
+      <c r="W89">
+        <v>0.1787868967095567</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.111438561296572</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2159654234900001</v>
+      </c>
+      <c r="C90">
+        <v>-6171.031968281499</v>
+      </c>
+      <c r="D90">
+        <v>3285.504031718501</v>
+      </c>
+      <c r="E90">
+        <v>3954.436</v>
+      </c>
+      <c r="F90">
+        <v>10766.536</v>
+      </c>
+      <c r="G90">
+        <v>1310</v>
+      </c>
+      <c r="H90">
+        <v>5422.6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>803.8</v>
+      </c>
+      <c r="K90">
+        <v>585.9</v>
+      </c>
+      <c r="L90">
+        <v>217.9</v>
+      </c>
+      <c r="M90">
+        <v>1977.8126632</v>
+      </c>
+      <c r="N90">
+        <v>-1759.9126632</v>
+      </c>
+      <c r="O90">
+        <v>-422.379039168</v>
+      </c>
+      <c r="P90">
+        <v>-1337.533624032</v>
+      </c>
+      <c r="Q90">
+        <v>-751.6336240320003</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4881985279390482</v>
+      </c>
+      <c r="T90">
+        <v>6.9892850201473</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.02644133136218662</v>
+      </c>
+      <c r="W90">
+        <v>0.1788427274287663</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.1101722140091108</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2177094234900002</v>
+      </c>
+      <c r="C91">
+        <v>-6320.872538079662</v>
+      </c>
+      <c r="D91">
+        <v>3258.010461920339</v>
+      </c>
+      <c r="E91">
+        <v>4076.783000000001</v>
+      </c>
+      <c r="F91">
+        <v>10888.883</v>
+      </c>
+      <c r="G91">
+        <v>1310</v>
+      </c>
+      <c r="H91">
+        <v>5422.6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>803.8</v>
+      </c>
+      <c r="K91">
+        <v>585.9</v>
+      </c>
+      <c r="L91">
+        <v>217.9</v>
+      </c>
+      <c r="M91">
+        <v>2000.2878071</v>
+      </c>
+      <c r="N91">
+        <v>-1782.3878071</v>
+      </c>
+      <c r="O91">
+        <v>-427.7730737040001</v>
+      </c>
+      <c r="P91">
+        <v>-1354.614733396</v>
+      </c>
+      <c r="Q91">
+        <v>-768.7147333960003</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.531734757751689</v>
+      </c>
+      <c r="T91">
+        <v>7.62467456743342</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02614423775137553</v>
+      </c>
+      <c r="W91">
+        <v>0.1788973035250723</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1089343239640647</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2194534234900001</v>
+      </c>
+      <c r="C92">
+        <v>-6470.256786158847</v>
+      </c>
+      <c r="D92">
+        <v>3230.973213841155</v>
+      </c>
+      <c r="E92">
+        <v>4199.130000000001</v>
+      </c>
+      <c r="F92">
+        <v>11011.23</v>
+      </c>
+      <c r="G92">
+        <v>1310</v>
+      </c>
+      <c r="H92">
+        <v>5422.6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>803.8</v>
+      </c>
+      <c r="K92">
+        <v>585.9</v>
+      </c>
+      <c r="L92">
+        <v>217.9</v>
+      </c>
+      <c r="M92">
+        <v>2022.762951</v>
+      </c>
+      <c r="N92">
+        <v>-1804.862951000001</v>
+      </c>
+      <c r="O92">
+        <v>-433.1671082400001</v>
+      </c>
+      <c r="P92">
+        <v>-1371.69584276</v>
+      </c>
+      <c r="Q92">
+        <v>-785.7958427600005</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5839782335268578</v>
+      </c>
+      <c r="T92">
+        <v>8.387142024176761</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02585374622080468</v>
+      </c>
+      <c r="W92">
+        <v>0.1789506668192382</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1077239425866862</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2211974234900001</v>
+      </c>
+      <c r="C93">
+        <v>-6619.195979646301</v>
+      </c>
+      <c r="D93">
+        <v>3204.3810203537</v>
+      </c>
+      <c r="E93">
+        <v>4321.477000000001</v>
+      </c>
+      <c r="F93">
+        <v>11133.577</v>
+      </c>
+      <c r="G93">
+        <v>1310</v>
+      </c>
+      <c r="H93">
+        <v>5422.6</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>803.8</v>
+      </c>
+      <c r="K93">
+        <v>585.9</v>
+      </c>
+      <c r="L93">
+        <v>217.9</v>
+      </c>
+      <c r="M93">
+        <v>2045.2380949</v>
+      </c>
+      <c r="N93">
+        <v>-1827.3380949</v>
+      </c>
+      <c r="O93">
+        <v>-438.5611427760001</v>
+      </c>
+      <c r="P93">
+        <v>-1388.776952124</v>
+      </c>
+      <c r="Q93">
+        <v>-802.8769521240002</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6478313705853977</v>
+      </c>
+      <c r="T93">
+        <v>9.319046693529737</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02556963911947716</v>
+      </c>
+      <c r="W93">
+        <v>0.179002857293752</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1065401629978215</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2229414234900002</v>
+      </c>
+      <c r="C94">
+        <v>-6767.701017765525</v>
+      </c>
+      <c r="D94">
+        <v>3178.222982234476</v>
+      </c>
+      <c r="E94">
+        <v>4443.824000000001</v>
+      </c>
+      <c r="F94">
+        <v>11255.924</v>
+      </c>
+      <c r="G94">
+        <v>1310</v>
+      </c>
+      <c r="H94">
+        <v>5422.6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>803.8</v>
+      </c>
+      <c r="K94">
+        <v>585.9</v>
+      </c>
+      <c r="L94">
+        <v>217.9</v>
+      </c>
+      <c r="M94">
+        <v>2067.7132388</v>
+      </c>
+      <c r="N94">
+        <v>-1849.8132388</v>
+      </c>
+      <c r="O94">
+        <v>-443.955177312</v>
+      </c>
+      <c r="P94">
+        <v>-1405.858061488</v>
+      </c>
+      <c r="Q94">
+        <v>-819.958061488</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7276477919085726</v>
+      </c>
+      <c r="T94">
+        <v>10.48392753022096</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02529170825948285</v>
+      </c>
+      <c r="W94">
+        <v>0.179053913192733</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1053821177478452</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2246854234900001</v>
+      </c>
+      <c r="C95">
+        <v>-6915.782446731067</v>
+      </c>
+      <c r="D95">
+        <v>3152.488553268933</v>
+      </c>
+      <c r="E95">
+        <v>4566.171</v>
+      </c>
+      <c r="F95">
+        <v>11378.271</v>
+      </c>
+      <c r="G95">
+        <v>1310</v>
+      </c>
+      <c r="H95">
+        <v>5422.6</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>803.8</v>
+      </c>
+      <c r="K95">
+        <v>585.9</v>
+      </c>
+      <c r="L95">
+        <v>217.9</v>
+      </c>
+      <c r="M95">
+        <v>2090.1883827</v>
+      </c>
+      <c r="N95">
+        <v>-1872.2883827</v>
+      </c>
+      <c r="O95">
+        <v>-449.349211848</v>
+      </c>
+      <c r="P95">
+        <v>-1422.939170852</v>
+      </c>
+      <c r="Q95">
+        <v>-837.0391708520002</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8302689050383687</v>
+      </c>
+      <c r="T95">
+        <v>11.98163146310966</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02501975440723034</v>
+      </c>
+      <c r="W95">
+        <v>0.1791038711153918</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1042489766967931</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2264294234900001</v>
+      </c>
+      <c r="C96">
+        <v>-7063.450473925499</v>
+      </c>
+      <c r="D96">
+        <v>3127.167526074504</v>
+      </c>
+      <c r="E96">
+        <v>4688.518000000002</v>
+      </c>
+      <c r="F96">
+        <v>11500.618</v>
+      </c>
+      <c r="G96">
+        <v>1310</v>
+      </c>
+      <c r="H96">
+        <v>5422.6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>803.8</v>
+      </c>
+      <c r="K96">
+        <v>585.9</v>
+      </c>
+      <c r="L96">
+        <v>217.9</v>
+      </c>
+      <c r="M96">
+        <v>2112.6635266</v>
+      </c>
+      <c r="N96">
+        <v>-1894.7635266</v>
+      </c>
+      <c r="O96">
+        <v>-454.743246384</v>
+      </c>
+      <c r="P96">
+        <v>-1440.020280216</v>
+      </c>
+      <c r="Q96">
+        <v>-854.1202802160002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9670970558780971</v>
+      </c>
+      <c r="T96">
+        <v>13.97857004029461</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02475358680715342</v>
+      </c>
+      <c r="W96">
+        <v>0.1791527661035259</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.1031399450298059</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2281734234900002</v>
+      </c>
+      <c r="C97">
+        <v>-7210.714981398594</v>
+      </c>
+      <c r="D97">
+        <v>3102.250018601408</v>
+      </c>
+      <c r="E97">
+        <v>4810.865000000002</v>
+      </c>
+      <c r="F97">
+        <v>11622.965</v>
+      </c>
+      <c r="G97">
+        <v>1310</v>
+      </c>
+      <c r="H97">
+        <v>5422.6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>803.8</v>
+      </c>
+      <c r="K97">
+        <v>585.9</v>
+      </c>
+      <c r="L97">
+        <v>217.9</v>
+      </c>
+      <c r="M97">
+        <v>2135.1386705</v>
+      </c>
+      <c r="N97">
+        <v>-1917.2386705</v>
+      </c>
+      <c r="O97">
+        <v>-460.1372809200001</v>
+      </c>
+      <c r="P97">
+        <v>-1457.10138958</v>
+      </c>
+      <c r="Q97">
+        <v>-871.2013895800002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.158656467053717</v>
+      </c>
+      <c r="T97">
+        <v>16.77428404835354</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02449302273549918</v>
+      </c>
+      <c r="W97">
+        <v>0.1792006317234888</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1020542613979133</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2299174234900002</v>
+      </c>
+      <c r="C98">
+        <v>-7357.585538726266</v>
+      </c>
+      <c r="D98">
+        <v>3077.726461273734</v>
+      </c>
+      <c r="E98">
+        <v>4933.212</v>
+      </c>
+      <c r="F98">
+        <v>11745.312</v>
+      </c>
+      <c r="G98">
+        <v>1310</v>
+      </c>
+      <c r="H98">
+        <v>5422.6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>803.8</v>
+      </c>
+      <c r="K98">
+        <v>585.9</v>
+      </c>
+      <c r="L98">
+        <v>217.9</v>
+      </c>
+      <c r="M98">
+        <v>2157.6138144</v>
+      </c>
+      <c r="N98">
+        <v>-1939.7138144</v>
+      </c>
+      <c r="O98">
+        <v>-465.531315456</v>
+      </c>
+      <c r="P98">
+        <v>-1474.182498944</v>
+      </c>
+      <c r="Q98">
+        <v>-888.2824989440002</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.445995583817143</v>
+      </c>
+      <c r="T98">
+        <v>20.96785506044188</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.0242378870820044</v>
+      </c>
+      <c r="W98">
+        <v>0.1792475001430358</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1009911961750184</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2316614234900002</v>
+      </c>
+      <c r="C99">
+        <v>-7504.071415264367</v>
+      </c>
+      <c r="D99">
+        <v>3053.587584735633</v>
+      </c>
+      <c r="E99">
+        <v>5055.558999999999</v>
+      </c>
+      <c r="F99">
+        <v>11867.659</v>
+      </c>
+      <c r="G99">
+        <v>1310</v>
+      </c>
+      <c r="H99">
+        <v>5422.6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>803.8</v>
+      </c>
+      <c r="K99">
+        <v>585.9</v>
+      </c>
+      <c r="L99">
+        <v>217.9</v>
+      </c>
+      <c r="M99">
+        <v>2180.0889583</v>
+      </c>
+      <c r="N99">
+        <v>-1962.1889583</v>
+      </c>
+      <c r="O99">
+        <v>-470.9253499919999</v>
+      </c>
+      <c r="P99">
+        <v>-1491.263608308</v>
+      </c>
+      <c r="Q99">
+        <v>-905.3636083079999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.924894111756191</v>
+      </c>
+      <c r="T99">
+        <v>27.95714008058918</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02398801195744765</v>
+      </c>
+      <c r="W99">
+        <v>0.1792934022034169</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.09995004982269862</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2334054234900002</v>
+      </c>
+      <c r="C100">
+        <v>-7650.181591830313</v>
+      </c>
+      <c r="D100">
+        <v>3029.824408169688</v>
+      </c>
+      <c r="E100">
+        <v>5177.906000000001</v>
+      </c>
+      <c r="F100">
+        <v>11990.006</v>
+      </c>
+      <c r="G100">
+        <v>1310</v>
+      </c>
+      <c r="H100">
+        <v>5422.6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>803.8</v>
+      </c>
+      <c r="K100">
+        <v>585.9</v>
+      </c>
+      <c r="L100">
+        <v>217.9</v>
+      </c>
+      <c r="M100">
+        <v>2202.5641022</v>
+      </c>
+      <c r="N100">
+        <v>-1984.6641022</v>
+      </c>
+      <c r="O100">
+        <v>-476.3193845280001</v>
+      </c>
+      <c r="P100">
+        <v>-1508.344717672</v>
+      </c>
+      <c r="Q100">
+        <v>-922.4447176720004</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.882691167634286</v>
+      </c>
+      <c r="T100">
+        <v>41.93571012088376</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02374323632522879</v>
+      </c>
+      <c r="W100">
+        <v>0.1793383674870555</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.09893015135512007</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2351494234900001</v>
+      </c>
+      <c r="C101">
+        <v>-7795.924771843507</v>
+      </c>
+      <c r="D101">
+        <v>3006.428228156494</v>
+      </c>
+      <c r="E101">
+        <v>5300.253000000001</v>
+      </c>
+      <c r="F101">
+        <v>12112.353</v>
+      </c>
+      <c r="G101">
+        <v>1310</v>
+      </c>
+      <c r="H101">
+        <v>5422.6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>803.8</v>
+      </c>
+      <c r="K101">
+        <v>585.9</v>
+      </c>
+      <c r="L101">
+        <v>217.9</v>
+      </c>
+      <c r="M101">
+        <v>2225.0392461</v>
+      </c>
+      <c r="N101">
+        <v>-2007.1392461</v>
+      </c>
+      <c r="O101">
+        <v>-481.713419064</v>
+      </c>
+      <c r="P101">
+        <v>-1525.425827036</v>
+      </c>
+      <c r="Q101">
+        <v>-939.5258270360001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.756082335268573</v>
+      </c>
+      <c r="T101">
+        <v>83.87142024176754</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.02350340565527699</v>
+      </c>
+      <c r="W101">
+        <v>0.1793824243811256</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.09793085689698755</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
